--- a/data/Informe_Final_KelceTS.xlsx
+++ b/data/Informe_Final_KelceTS.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LDAAFM\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9B3A8-1BE6-4317-9714-A6F07DB76E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Comentarios válidos" sheetId="1" r:id="rId1"/>
-    <sheet name="Errores detectados" sheetId="2" r:id="rId2"/>
-    <sheet name="Resumen visual" sheetId="3" r:id="rId3"/>
+    <sheet name="Resumen visual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Comentarios válidos'!$A$1:$Q$50</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="353">
   <si>
     <t>comentario_original</t>
   </si>
@@ -66,226 +56,244 @@
     <t>email_proveedor</t>
   </si>
   <si>
-    <t>Comentario 1: Estoy muy contento con mis nuevas zapatillas. Llegaron en menos de 48 horas, bien embaladas, la talla es perfecta y los materiales son de buena calidad. Las uso para correr todos los días y han superado mis expectativas.</t>
-  </si>
-  <si>
-    <t>Kommentar 2: Als die Schuhe angekommen sind habe ich mich erstmal sehr gefreut und hätte wahrscheinlich 5 Sterne vergeben! Sie haben gut gepasst, wirkten auf den ersten Blick relativ gut verarbeitet und sehr bequem. Leider musste ich fast sofort feststellen dass die Schuhe sich unnormal schnell abnutzen.</t>
-  </si>
-  <si>
-    <t>Σχόλιο 3: Έλαβα τα παπούτσια μου σε λιγότερο από 48 ώρες, τέλεια συσκευασμένα. Το μέγεθος είναι ακριβώς σωστό και τα υλικά είναι εξαιρετικής ποιότητας. Τα χρησιμοποιώ καθημερινά για τρέξιμο και είμαι πολύ ικανοποιημένος με την αγορά μου.</t>
-  </si>
-  <si>
-    <t>Commentaire 4: La livraison a pris plus d'une semaine et quand j'ai ouvert le colis, j'ai constaté que les chaussures étaient trop petites. Les matériaux semblent de bonne qualité, mais je ne peux pas les porter. Je suis déçu car je ne peux pas les utiliser pour mes cours de fitness comme prévu.</t>
-  </si>
-  <si>
-    <t>Commento 5: Ho ricevuto le scarpe in meno di 48 ore, perfettamente imballate. La taglia è perfetta e i materiali sono di ottima qualità. Le uso ogni giorno per correre e sono molto soddisfatto del mio acquisto.</t>
-  </si>
-  <si>
-    <t>Opmerking 6: De schoenen arriveerden na meer dan twee weken en toen ik de doos opende, zag ik dat ze de verkeerde maat hadden gestuurd. Ik had maat 41 besteld, maar maat 43 ontvangen. Ik kan ze niet gebruiken en ben erg teleurgesteld.</t>
-  </si>
-  <si>
-    <t>Komentarz 7: Buty dotarły po ponad tygodniu, a pudełko było uszkodzone w rogu. Na szczęście produkt był nienaruszony. Rozmiar jest odpowiedni, ale materiały nie wydają się zbyt trwałe. Do okazjonalnego użytku powinny wystarczyć.</t>
-  </si>
-  <si>
-    <t>Kommentti 8: Sain kengät alle 48 tunnissa, täydellisesti pakattuina. Koko on juuri oikea ja materiaalit ovat erinomaista laatua. Käytän niitä päivittäin juoksemiseen ja olen erittäin tyytyväinen ostokseeni.</t>
-  </si>
-  <si>
-    <t>Comentário 9: Recebi os sapatos em menos de 72 horas, perfeitamente embalados. O tamanho está perfeito e os materiais são de excelente qualidade. Eu os uso diariamente para correr e estou muito satisfeito com a compra.</t>
-  </si>
-  <si>
-    <t>Comment 10: The shoes took over a week to arrive and when I opened the box, it was damaged on one corner. Fortunately, the product was intact. The size is correct but the materials don't seem very durable. For occasional use I guess they'll do.</t>
-  </si>
-  <si>
-    <t>Commentaire 11: J'ai reçu mes chaussures en moins de 72 heures, bien emballées et en parfait état. La taille est exactement ce que j'attendais et la qualité des matériaux est impressionnante. Je les utilise tous les jours pour courir et elles sont très confortables.</t>
-  </si>
-  <si>
-    <t>Comentario 12: Las zapatillas tardaron más de una semana en llegar y cuando abrí la caja estaba dañada en una esquina. Por suerte, el producto estaba intacto. La talla es correcta pero los materiales no parecen muy duraderos. Para uso ocasional supongo que servirán.</t>
-  </si>
-  <si>
-    <t>Kommentar 13: Die Lieferung erfolgte innerhalb der versprochenen 96 Stunden, die Verpackung war jedoch leicht beschädigt. Die Größe stimmt, aber die Materialqualität ist nicht optimal. Ich benutze sie nur gelegentlich für kurze Spaziergänge und bisher halten sie.</t>
-  </si>
-  <si>
-    <t>Kommentar 14: Die Schuhe kamen innerhalb von 3 Tagen an und die Verpackung war einwandfrei. Sie passen perfekt und sind sehr bequem. Die Materialien sind hochwertig und ich benutze sie täglich zum Laufen. Ich bin sehr zufrieden mit meinem Kauf.</t>
-  </si>
-  <si>
-    <t>Komentář 15: Své boty jsem obdržel za méně než 48 hodin, dokonale zabalené. Velikost je přesně správná a materiály jsou vynikající kvality. Používám je denně na běhání a jsem s nákupem velmi spokojen.</t>
-  </si>
-  <si>
-    <t>Comentario 16: Son un poco plasticosas por fuera. Son bonitas. Me quedan algo grandes, el 46, quizás sea el problema de usar 45 y medio. Con plantillas se mitiga algo el problema. No las devuelvo porque se pueden usar así, pero quizás hubiera sido mejor comprar unas que me pueda probar bien primero.</t>
-  </si>
-  <si>
-    <t>Opmerking 17: De levering was binnen de beloofde 96 uur en de verpakking was intact. De maat klopt, maar de materialen voelen wat goedkoop aan. Ik gebruik ze af en toe voor korte wandelingen en tot nu toe houden ze het vol, maar ik verwacht niet dat ze lang meegaan.</t>
-  </si>
-  <si>
-    <t>Kommentár 18: A cipő több mint egy hét alatt érkezett meg, és amikor kinyitottam a dobozt, az egyik sarokban sérült volt. Szerencsére a termék sértetlen volt. A méret megfelelő, de az anyagok nem tűnnek nagyon tartósnak. Alkalmi használatra gondolom, megteszi.</t>
-  </si>
-  <si>
-    <t>Komentar 19: Cipele su stigle nakon više od tjedna dana, a kada sam otvorio kutiju, bila je oštećena u jednom kutu. Srećom, proizvod je bio netaknut. Veličina je točna, ali materijali ne izgledaju vrlo izdržljivo. Za povremenu upotrebu pretpostavljam da će poslužiti.</t>
-  </si>
-  <si>
-    <t>Comment 20: I received my shoes in less than 48 hours, perfectly packaged. The size is just right and the materials are of excellent quality. I use them daily for running and I'm very happy with my purchase.</t>
-  </si>
-  <si>
-    <t>Kommentti 21: Kenkien saapumisessa kesti yli viikko, ja kun avasin laatikon, se oli vahingoittunut yhdestä kulmasta. Onneksi tuote oli koskematon. Koko on oikea, mutta materiaalit eivät vaikuta kovin kestäviltä. Satunnaiseen käyttöön ne kai käyvät.</t>
-  </si>
-  <si>
-    <t>Kommentér 23: Jeg modtog mine sko på mindre end 48 timer, perfekt emballeret. Størrelsen er lige rigtig, og materialerne er af fremragende kvalitet. Jeg bruger dem dagligt til løb og er meget tilfreds med mit køb.</t>
-  </si>
-  <si>
-    <t>Коментар 24: Получих обувките си за по-малко от 48 часа, перфектно опаковани. Размерът е точно както трябва, а материалите са с отлично качество. Използвам ги ежедневно за бягане и съм много доволен от покупката си.</t>
-  </si>
-  <si>
-    <t>Comentář 25: Boty dorazily po více než týdnu a když jsem otevřel krabici, byla poškozená v jednom rohu. Naštěstí byl produkt neporušený. Velikost je správná, ale materiály nevypadají příliš odolně. Pro příležitostné použití myslím, že postačí.</t>
-  </si>
-  <si>
-    <t>Kommentar 26: Skorna tog över en vecka att leverera och när jag öppnade lådan var den skadad i ett hörn. Lyckligtvis var produkten intakt. Storleken är korrekt men materialen verkar inte särskilt hållbara. För tillfällig användning antar jag att de duger.</t>
-  </si>
-  <si>
-    <t>Komment 27: A kézbesítés az ígért 96 órán belül megtörtént, és a csomagolás sértetlen volt. A méret megfelelő, de az anyagminőség nem túl jó. Csak alkalmanként használom rövid sétákhoz, és eddig bírják, de nem vagyok biztos benne, hogy sokáig fognak tartani.</t>
-  </si>
-  <si>
-    <t>Comentariu 28: Pantofii au fost livrați după mai mult de o săptămână, iar când am deschis cutia, am observat că era deteriorată într-un colț. Din fericire, produsul era intact. Mărimea este corectă, dar materialele nu par foarte durabile. Pentru utilizare ocazională, cred că vor fi suficienți.</t>
-  </si>
-  <si>
-    <t>Komentarz 29: Otrzymałem buty w mniej niż 48 godzin, idealnie zapakowane. Rozmiar jest idealny, a materiały są doskonałej jakości. Używam ich codziennie do biegania i jestem bardzo zadowolony z zakupu.</t>
-  </si>
-  <si>
-    <t>Commento 30: Le scarpe sono arrivate con quasi due settimane di ritardo e la scatola era danneggiata. Per fortuna, le scarpe erano intatte. Tuttavia, dopo solo due settimane di uso quotidiano, le suole hanno iniziato a usurarsi e il materiale sintetico si è scollato. Sono molto deluso dalla qualità.</t>
-  </si>
-  <si>
-    <t>Kommentar 31: Jag fick mina skor på mindre än 48 timmar, perfekt förpackade. Storleken är precis rätt och materialen är av utmärkt kvalitet. Jag använder dem dagligen för löpning och är mycket nöjd med mitt köp.</t>
-  </si>
-  <si>
-    <t>Comentário 32: Os sapatos demoraram mais de 10 dias para chegar e quando abri a caixa percebi que o tamanho estava errado. Pedi o número 42 e recebi o 44. Os materiais parecem bons, mas não posso usá-los. Estou muito decepcionado com este erro.</t>
-  </si>
-  <si>
-    <t>Σχόλιο 33: Τα παπούτσια έφτασαν μετά από περισσότερο από μία εβδομάδα και όταν άνοιξα το κουτί, ήταν κατεστραμμένο σε μια γωνία. Ευτυχώς, το προϊόν ήταν άθικτο. Το μέγεθος είναι σωστό αλλά τα υλικά δεν φαίνονται πολύ ανθεκτικά. Για περιστασιακή χρήση υποθέτω ότι θα κάνουν τη δουλειά τους.</t>
-  </si>
-  <si>
-    <t>Komentář 34: Doručení proběhlo v rámci slíbených 96 hodin a balení bylo neporušené. Velikost je správná, ale kvalita materiálů není skvělá. Používám je jen příležitostně na krátké procházky a zatím drží, ale nejsem si jistý, že vydrží dlouho.</t>
-  </si>
-  <si>
-    <t>Opmerking 35: Ik ontving mijn schoenen binnen 48 uur, perfect verpakt. De maat is precies goed en de materialen zijn van uitstekende kwaliteit. Ik gebruik ze dagelijks om te hardlopen en ben erg blij met mijn aankoop.</t>
-  </si>
-  <si>
-    <t>Comment 36: Delivery was within the promised 96 hours and the packaging was intact. The size is correct, but the material quality isn't great. I'm using them just occasionally for short walks and so far they're holding up, but I'm not confident they'll last long.</t>
-  </si>
-  <si>
-    <t>Kommentti 37: Toimitus tapahtui luvatun 96 tunnin kuluessa ja pakkaus oli ehjä. Koko on oikea, mutta materiaalien laatu ei ole kovin hyvä. Käytän niitä vain satunnaisesti lyhyillä kävelyillä ja toistaiseksi ne ovat kestäneet, mutta en ole varma, kestävätkö ne pitkään.</t>
-  </si>
-  <si>
-    <t>Kommentár 38: Kevesebb mint 48 óra alatt megkaptam a cipőmet, tökéletesen csomagolva. A méret pontosan jó, és az anyagok kiváló minőségűek. Naponta használom futáshoz, és nagyon elégedett vagyok a vásárlásommal.</t>
-  </si>
-  <si>
-    <t>Komentarz 39: Dostawa nastąpiła w obiecanych 96 godzin i opakowanie było nienaruszone. Rozmiar jest odpowiedni, ale jakość materiałów nie jest najlepsza. Używam ich tylko okazjonalnie do krótkich spacerów i jak na razie się trzymają, ale nie jestem przekonany, że będą służyć długo.</t>
-  </si>
-  <si>
-    <t>Kommentar 40: Leveransen skedde inom de utlovade 96 timmarna och förpackningen var intakt. Storleken stämmer, men materialkvaliteten är inte särskilt bra. Jag använder dem bara ibland för korta promenader och hittills håller de, men jag är inte säker på att de kommer att hålla länge.</t>
-  </si>
-  <si>
-    <t>Komentar 41: Primio sam svoje cipele u manje od 48 sati, savršeno zapakirane. Veličina je upravo odgovarajuća, a materijali su izvrsne kvalitete. Koristim ih svakodnevno za trčanje i vrlo sam zadovoljan svojom kupnjom.</t>
-  </si>
-  <si>
-    <t>Σχόλιο 42: Η παράδοση έγινε εντός των υποσχόμενων 96 ωρών και η συσκευασία ήταν άθικτη. Το μέγεθος είναι σωστό, αλλά η ποιότητα των υλικών δεν είναι πολύ καλή. Τα χρησιμοποιώ μόνο περιστασιακά για σύντομους περιπάτους και μέχρι στιγμής αντέχουν, αλλά δεν είμαι σίγουρος ότι θα κρατήσουν για πολύ.</t>
-  </si>
-  <si>
-    <t>Comentariu 43: Am primit pantofii în mai puțin de 48 de ore, perfect ambalați. Mărimea este exact corectă, iar materialele sunt de calitate excelentă. Îi folosesc zilnic pentru alergare și sunt foarte mulțumit de achiziția mea.</t>
-  </si>
-  <si>
-    <t>Kommentar 44: Skoene tog over en uge at levere, og da jeg åbnede kassen, var den beskadiget i et hjørne. Heldigvis var produktet intakt. Størrelsen er korrekt, men materialerne virker ikke særlig holdbare. Til lejlighedsvis brug går de vel an.</t>
-  </si>
-  <si>
-    <t>Comentario 45: Livrarea a fost în intervalul promis de 96 de ore, iar ambalajul era intact. Mărimea este corectă, dar calitatea materialelor nu este foarte bună. Îi folosesc doar ocazional pentru plimbări scurte și până acum rezistă, dar nu sunt sigur că vor rezista mult timp.</t>
-  </si>
-  <si>
-    <t>Comentário 46: A entrega foi dentro do prazo de 96 horas e a embalagem estava intacta. O tamanho está certo, mas os materiais não parecem muito duráveis. Uso-os ocasionalmente para caminhadas curtas e até agora estão aguentando, mas não estou confiante que durarão muito tempo.</t>
-  </si>
-  <si>
-    <t>Commento 47: La consegna è stata rapida e l'imballaggio era in buone condizioni. La taglia è corretta, ma i materiali non sembrano molto resistenti. Le uso solo occasionalmente per brevi passeggiate e finora stanno tenendo, ma non sono sicuro che dureranno a lungo.</t>
-  </si>
-  <si>
-    <t>Kommentar 48: Leveringen var inden for de lovede 96 timer, og emballagen var intakt. Størrelsen er korrekt, men materialet er ikke af særlig god kvalitet. Jeg bruger dem kun lejlighedsvis til korte gåture, og indtil videre holder de, men jeg er ikke sikker på, at de vil holde længe.</t>
-  </si>
-  <si>
-    <t>Komentar 49: Isporuka je bila unutar obećanih 96 sati i pakiranje je bilo netaknuto. Veličina je točna, ali kvaliteta materijala nije velika. Koristim ih samo povremeno za kratke šetnje i za sada izdržavaju, ali nisam siguran da će dugo trajati.</t>
-  </si>
-  <si>
-    <t>Коментар 50: Обувките пристигнаха след повече от седмица, а когато отворих кутията, тя беше повредена в един ъгъл. За щастие, продуктът беше непокътнат. Размерът е правилен, но материалите не изглеждат много издръжливи. За случайна употреба предполагам, че ще свършат работа.</t>
+    <t>Comment 1: Ordered late Monday and had the box in hand by Wednesday breakfast—barely 36 hours. Courier handled it gently: not a single dent. Size 9 hugs my arches, algae‑foam midsole pops with energy, recycled knit vents the Texas humidity. Fifteen hilly miles later, zero hotspots: exactly what I hoped for.</t>
+  </si>
+  <si>
+    <t>Comment 2: Two‑day shipping promise kept: 47 hours door to door. The discreet eco‑paper wrap looked thin but protected perfectly. UK 8 fits like a sock; the cork insole wicked sweat on a humid 10 k. Loved the free extra laces and the fact the tongue stays put. Big thumbs‑up on comfort and ethics.</t>
+  </si>
+  <si>
+    <t>Comment 3: Box showed up unscathed within the 96‑hour window. First impression: lightweight but sturdy. Ran a half‑marathon training run right away and the bio‑based cushioning felt springier than my pricey racers. Friends asked if they were designer shoes—style plus performance, I’m sold.</t>
+  </si>
+  <si>
+    <t>Comment 4: Next‑day delivery to rural Vermont is rare, but they pulled it off. The vegetal suede upper feels premium, and the heel loop actually helps. After a week of bartending shifts my feet are fresh, arch support solid, and traction great on wet tile. Definitely surpassed my expectations.</t>
+  </si>
+  <si>
+    <t>Kommentar 5: Von der Bestellung bis zur Haustür vergingen 42 Stunden. Karton makellos, kein Plastik. Größe 43 sitzt millimetergenau, der Algenschaum federt selbst auf Kopfsteinpflaster. Nach fünf Pendel‑Tagen keinerlei Abrieb am Mesh. Nachhaltig und bequem – so stelle ich mir modernes Schuhwerk vor.</t>
+  </si>
+  <si>
+    <t>Kommentar 6: Lieferung kam einen Tag früher als angekündigt. Der Korkeinsatz riecht angenehm nach Wald und die Nähte sind sauber versiegelt. Zwei Stunden Trail im Regen, keine feuchten Socken. Tragegefühl federleicht, trotzdem stabil an der Ferse. Für mich ein klarer Fünf‑Sterne‑Kauf.</t>
+  </si>
+  <si>
+    <t>Commentaire 7: Colis reçu en 48 h, sans un coin froissé. Le 42 épouse mon pied comme un gant; la semelle d’algue rebondit sur les pavés parisiens. Après une journée entière debout au salon Maison&amp;Objet, pas d’ampoules. Design sobre, confort top et démarche éthique, je valide à 100 %.</t>
+  </si>
+  <si>
+    <t>Commentaire 8: Expédition éclair – moins de deux jours. Emballage zéro plastique, chausson parfumé au liège naturel. J’ai couru 12 km le long de la Seine; l’adhérence est bluffante même sur les quais humides. Les coutures tiennent, la respirabilité est réelle. Produit conforme et même plus.</t>
+  </si>
+  <si>
+    <t>Commento 9: Consegna lampo, 38 ore da clic a porta. La tomaia in canapa è morbida e non fa sudare. Ho corso una mezza maratona e l’intersuola in alga ha restituito energia fino all’ultimo km. Qualità e sostenibilità al top, più lacci di ricambio in omaggio: dettaglio gradito.</t>
+  </si>
+  <si>
+    <t>Commento 10: Ordinate sabato sera, arrivate lunedì a pranzo. Packaging compatto e riciclabile. Il 42 calza perfetto e il plantare in sughero profuma di bosco. Dopo otto ore da cameriera, zero dolore. Le userò per tutti i miei turni, fiduciosa nei 1 000 km di vita dichiarati.</t>
+  </si>
+  <si>
+    <t>Comentario 11: Pedido jueves 18 h, entrega sábado 9 h. Bolsa de papel sin plásticos, tallaje clava mi 41. La suela de caña de azúcar amortigua sin hundirse y el tejido knit ventila el calor sevillano. Tras 25 km acumulados, el desgaste es nulo. Compra redonda y responsable.</t>
+  </si>
+  <si>
+    <t>Comentario 12: Increíblemente ligeras. Llegaron en 40 h y la caja reciclada cabía en mi buzón. Plantilla antibacteriana de corcho, costuras limpias y un juego extra de cordones. Tras jornadas de enfermera de 12 h sigo sin molestias. El valor supera al precio. Además, agradezco la guía de reciclaje incluida.</t>
+  </si>
+  <si>
+    <t>Comentário 13: Fiz o pedido na terça às 15 h e recebi quinta cedo. Caixa impecável, zero plástico. O 42 calça justo, a palmilha de cortiça evita mau cheiro e a sola de algas dá ótimo retorno de energia. Corri 10 km na orla de Lisboa sem sinal de desgaste. Vale cada cêntimo.</t>
+  </si>
+  <si>
+    <t>Opmerking 14: Binnen 36 uur geleverd, doos netjes in de fietsenstalling gelegd. Maat 43,5 zit als gegoten; de kurken inlegzool blijft droog tijdens mijn forens‑rit. De algen‑foam demping voelt veerkrachtig op de kasseien rond Utrecht. Duurzaam én comfortabel—precies wat ik zocht.</t>
+  </si>
+  <si>
+    <t>Komentarz 15: Zamówione w środę, doręczone w piątek—szybko! Karton bez uszkodzeń. Rozmiar 44 pasuje idealnie, a pianka z trzciny cukrowej sprężyście odbija. Po pięciu treningach 8 km biegu pod górę brak śladów zużycia. Cieszę się, że marka stawia na materiały wegańskie i recykling.</t>
+  </si>
+  <si>
+    <t>Kommentti 16: Tilasin sunnuntai‑iltana, kengät olivat tiistaina postilaatikossa. Pakkaus oli kierrätyskartonkia, täysin ehjä. Koko 41 istuu täydellisesti ja merileväpohja joustaa kevyesti. Juoksin 15 km pakkasessa—ei liukastumista eikä kylmiä varpaita. Laatu yllätti positiivisesti.</t>
+  </si>
+  <si>
+    <t>Σχόλιο 17: Παρήγγειλα Δευτέρα, παρέλαβα Τετάρτη πρωί. Συσκευασία άθικτη, χωρίς πλαστικό. Το 44 αγκαλιάζει το πόδι, ο φελλός απορροφά ιδρώτα και η σόλα από φύκη δίνει ελαστικότητα στο τρέξιμο κατά μήκος της παραλίας. Μετά από 20 χλμ καμία φθορά—άριστη επιλογή. Η μάρκα κέρδισε την εμπιστοσύνη μου.</t>
+  </si>
+  <si>
+    <t>Comentariu 18: Comandate marți, ajuns joi la prânz. Cutia din carton reciclat era intactă. Mărimea 43 se potrivește la milimetru, iar branțul din plută ține umezeala departe. Am alergat 12 km pe aleile din Timișoara și talpa din alge rămâne elastică. Raport calitate‑preț excelent.</t>
+  </si>
+  <si>
+    <t>Comment 19: The shoes spent nine days bouncing between depots and arrived with the outer box ripped open. Size 10 is closer to a 9 and pinches my toes. After one 5 k the glue along the heel already split, squeaking with every step. Customer support wants me to pay return postage—deeply disappointed.</t>
+  </si>
+  <si>
+    <t>Comment 20: Promised 96‑hour delivery turned into almost two weeks. The parcel was left in the rain; carton soaked through, and one insole literally floated out. Materials feel like cheap vinyl and the midsole collapsed after a single gym session. Definitely fails all quality claims on the website.</t>
+  </si>
+  <si>
+    <t>Comment 21: Arrived on time but colour is miles off the advertised “forest green” and looks more like murky brown. Within three days the toe box stitching popped and the cork footbed started shedding flakes. Not worth the hassle of an international return, yet I can’t wear them to work either.</t>
+  </si>
+  <si>
+    <t>Kommentar 22: Paket kam eine Woche zu spät und war durchweicht. Größe 44 fällt viel zu klein aus; Zehen stoßen an. Nach nur 10 km löste sich die Sohle vorne komplett. Kundenservice verweist auf Kleingedrucktes und bietet keinen kostenfreien Rückversand. Für diesen Preis völlig inakzeptabel.</t>
+  </si>
+  <si>
+    <t>Kommentar 23: Lieferung zwar pünktlich, doch der Karton war zerdrückt und ein Loch klaffte an der Seite. Das vegane Leder ist steif wie Pappe und knarzt bei jedem Schritt. Blasen an der Ferse nach 30 Minuten. Erwartungen verfehlt; bitte als interne Qualitätsmeldung erfassen.</t>
+  </si>
+  <si>
+    <t>Commentaire 24: Plus de dix jours d’attente alors que le site promet « 48‑72 h ». Le colis, détrempé, a taché les chaussures. La pointure 40 est étrangement large et la semelle s’affaisse après une simple promenade. SAV me réclame des photos sans proposer d’étiquette retour gratuite. Très déçue.</t>
+  </si>
+  <si>
+    <t>Commentaire 25: Couleur mal représentée ; le « bleu océan » ressemble à un gris terne. Après deux lavages délicats, le mesh rétrécit et colle au cou‑de‑pied. Emballage arrivé éventré; on aurait dit un produit d’occasion. Pas à la hauteur d’une marque qui se dit premium. Demandé une étiquette SAV en attente.</t>
+  </si>
+  <si>
+    <t>Commento 26: Consegna oltrepassata di una settimana, scatola bucata. Il numero 43 stringe da morire, e la suola scricchiola dopo neanche un chilometro. L’assistenza pretende foto e non copre le spese di ritorno. Per un prodotto eco‑friendly mi aspettavo ben altra qualità.</t>
+  </si>
+  <si>
+    <t>Commento 27: Arrivate puntuali ma il colore « vino » è molto diverso; sembra ruggine. Dopo due giorni d’uso la cucitura del tallone si è aperta e il bordo taglia la pelle. Imballaggio in ordine, ma materiali scadenti. Ho chiesto rimborso: pratica ancora in revisione. Delusione totale dato il prezzo.</t>
+  </si>
+  <si>
+    <t>Comentario 28: La promesa de 96 h se convirtió en 12 días. El mensajero dejó la caja bajo la lluvia; la mitad del cartón pegado a las suelas. La talla 42 viene enorme y la plantilla se despega al caminar. Abrí incidencia, pero atención al cliente solo envía respuestas automáticas.</t>
+  </si>
+  <si>
+    <t>Comentario 29: Llegaron rápido, sí, pero la calidad es decepcionante: la suela de « algas » es dura como piedra y resbala en suelo mojado. Tras 3 km apareció una grieta en el talón. Además, huelen a pegamento industrial. Dudo que aguanten un mes de uso. Experiencia negativa; no repetiré.</t>
+  </si>
+  <si>
+    <t>Comentário 30: Entrega demorou 14 dias; a embalagem chegou rasgada. O número 40 ficou apertado e o tecido arranha o tornozelo. Depois de um passeio de 5 km, a sola começou a descolar. Solicitei devolução, mas o suporte disse que só reembolsam se eu pagar o frete. Decepção total.</t>
+  </si>
+  <si>
+    <t>Opmerking 31: Het duurde elf dagen voordat het pakket er was en de doos was kletsnat. Maat 45 valt klein, tenen botsen. Na een middagje wandelen liet het lijmwerk aan de neus los en de inlegzool schuift. Klantenservice reageert traag en verwijst naar kleine lettertjes. Jammer.</t>
+  </si>
+  <si>
+    <t>Komentarz 32: Czekałem prawie dwa tygodnie. Karton uszkodzony, w środku brak dodatkowej pary sznurowadeł. Rozmiar 42,5 jest zbyt ciasny, a pianka zapada się już po kilku krokach. Obsługa odsyła mnie do instrukcji reklamacji bez zaoferowania darmowej etykiety. Słabo. Nie polecam.</t>
+  </si>
+  <si>
+    <t>Kommentti 33: Toimitus myöhästyi viikolla ja laatikko oli revennyt. Koko 40 puristaa, pohjallinen liukuu ja tekstiili nukkaantuu jo ensimmäisen lenkin jälkeen. Asiakaspalvelu ei tarjoa palautustarraa. Hinta–laatu täysin pielessä, harmittaa. Joudun nyt maksamaan postikulut itse.</t>
+  </si>
+  <si>
+    <t>Σχόλιο 34: Η παράδοση άργησε έντεκα μέρες· το κουτί ήταν μούσκεμα και σχισμένο. Το 43 πιέζει τα δάχτυλα, ενώ η σόλα τρίζει συνέχεια. Μετά από 5 χλμ περπάτημα φάνηκαν ρωγμές στο πλάι. Η εξυπηρέτηση ζητά φωτογραφίες αλλά δεν καλύπτει τα έξοδα επιστροφής. Κακή εμπειρία.</t>
+  </si>
+  <si>
+    <t>Kommentár 35: Tíz napot késett a futár, a doboz szétázott. A 42‑es kicsi, a talp kellemetlenül kemény. Két kilométer után recseg a sarok, a ragasztó elengedett. Ügyfélszolgálat sablonválaszokkal hárít. Ár‑érték arány pocsék; nem ajánlom. Visszaküldeném, de a postaköltséget nekem kell állnom.</t>
+  </si>
+  <si>
+    <t>Nóta 36: Bhí mo bhróga dhá sheachtain ar an mbealach; tháinig an bosca stróicthe agus fliuch. Tá an méid 44 ró‑bheag agus cuireann sé brú ar na méara. Tar éis 4 km, tá an greamachán ag scaoileadh. Ní thairgeann an tseirbhís do chustaiméirí lipéad fillte saor in aisce. Díomá glan.</t>
+  </si>
+  <si>
+    <t>Kommentaar 37: Lubatud 96 tunni asemel jõudis pakk kümne päevaga; karp kortsus ja niiske. Suurus 42 pigistab, kannaõmblus kraabib. Poole tunniga hakkas tald kriuksuma ja liim tuli lahti. Klienditeenindus palub mul tagastuskulu ise tasuda. Väga pettunud. Pole seda väärt.</t>
+  </si>
+  <si>
+    <t>Komentārs 38: Piegāde kavējās astoņas dienas, kaste sadurta. 43. izmērs spiež, zolīte slīd. Pēc 3 km pastaigas starpzole saplaka un audums sāka plīst. Klientu atbalsts piedāvā tikai 10 % kuponu, nevis bezmaksas atgriešanu. Par šo cenu nepieņemami. Vilšanās. Nepirkšu atkārtoti.</t>
+  </si>
+  <si>
+    <t>Komentaras 39: Siunta atkeliavo per penkias dienas, dėžė kiek suspausta, bet batai nepažeisti. 42 dydis atitinka, medžiaga maloni, nors atrodo, kad padas greitai dėvėsis. Po 8 km pasivaikščiojimo jaučiu lengvą girgždėjimą, bet kol kas viskas gerai. Pažiūrėsime, kaip laikysis toliau.</t>
+  </si>
+  <si>
+    <t>Comment 40: Delivered within the four‑day target, though the courier left the parcel at reception without notice. Size 11 feels a tad roomy but nothing an extra insole can’t fix. Materials seem decent if not exceptional. After one week of commuting I’m neither wowed nor upset.</t>
+  </si>
+  <si>
+    <t>Kommentar 41: Versand dauerte genau 96 Stunden, Karton leicht eingedrückt. Größe 42 sitzt ok, Obermaterial wirkt solide, aber nicht luxuriös. Nach drei Spaziergängen knarzt die Sohle leise, sonst keine Probleme. Insgesamt ordentliche Schuhe, jedoch kein Highlight.</t>
+  </si>
+  <si>
+    <t>Commentaire 42: Paire reçue en cinq jours, emballage un peu froissé. Le 40,5 est correct, la semelle est ferme mais stable. La couleur diffère légèrement des photos, sans être gênante. Après deux sorties, je réserve encore mon avis sur la durabilité. Globalement, sentiment mitigé.</t>
+  </si>
+  <si>
+    <t>Comentario 43: Entrega en plazo y caja intacta, aunque el mensajero no avisó. La talla 40 queda justa; plantillas algo duras al principio pero mejoran al andar. El tejido se ve resistente, aunque aún no lo pruebo bajo lluvia. De momento, ni frío ni calor.</t>
+  </si>
+  <si>
+    <t>Commento 44: Consegna rispettata in 4 giorni, scatola con un leggero urto. Numero 41 regolare; intersuola rigida i primi passi ma si adatta. Materiali ok, estetica sobria. Dopo 10 km di passeggiata niente di eclatante né problemi seri. Vedremo sul lungo periodo.</t>
+  </si>
+  <si>
+    <t>Opmerking 45: Pakket lag precies 96 uur na bestelling op de mat. Doos wat ingedeukt, schoenen onbeschadigd. Maat 42 zit goed, maar de tong schuift soms. Grip is prima op droog asfalt; op nat wegdek nog niet getest. Tot nu toe gematigd positief. Kwaliteit lijkt in orde voor de prijs.</t>
+  </si>
+  <si>
+    <t>Comentário 46: Chegou no prazo, mas o carteiro deixou com o vizinho sem avisar. Número 39 certinho; a palmilha de cortiça é firme, talvez amoleça. O tecido respira bem nas caminhadas de fim de tarde. Ainda não sei se a sola durará, mas por enquanto está ok.</t>
+  </si>
+  <si>
+    <t>Komentarz 47: Dostawa w 4 dni, paczka lekko zgnieciona. Rozmiar 40 pasuje, choć cholewka wydaje się sztywna. Po kilku spacerach pianka lekko się ugina, co może być plusem. Materiały wyglądają na solidne, zobaczymy po dłuższym użytkowaniu. Ogólnie neutralne odczucia.</t>
+  </si>
+  <si>
+    <t>Kommentti 48: Saapui kolmen päivän kuluttua, pakkaus pikkiriikkisen rypistynyt. Koko 42 istuu, kantapäässä hieman liikaa tilaa. Materiaalit vaikuttavat asiallisilta, mutta en vielä testannut sateessa. Ensituntuma ihan ok, ei sykähdyttävä. Seurataan kulumista.</t>
+  </si>
+  <si>
+    <t>Σχόλιο 49: Η παράδοση σε τέσσερις μέρες, συσκευασία με μικρό βαθούλωμα. Το 42,5 εφαρμόζει καλά, αλλά η σόλα δείχνει σκληρή στις πρώτες βόλτες. Χρώμα πιστό στις φωτογραφίες. Περιμένω να δω αν θα μαλακώσει μετά από λίγο τρέξιμο. Γενικά ουδέτερη εντύπωση.</t>
+  </si>
+  <si>
+    <t>Kommentar 50: Paketet kom på utlovad tid, kartongen lätt bucklig. Storlek 41 sitter bra, men plösen kasar lite. Testade dem i 7 km jogging—varken fantastiska eller dåliga. Materialet känns okej, men jag vill se hur sulan håller om några månader.</t>
+  </si>
+  <si>
+    <t>inglés</t>
+  </si>
+  <si>
+    <t>alemán</t>
+  </si>
+  <si>
+    <t>francés</t>
+  </si>
+  <si>
+    <t>italiano</t>
   </si>
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>alemán</t>
+    <t>portugués</t>
+  </si>
+  <si>
+    <t>holandés</t>
+  </si>
+  <si>
+    <t>polaco</t>
+  </si>
+  <si>
+    <t>finlandés</t>
   </si>
   <si>
     <t>griego</t>
   </si>
   <si>
-    <t>francés</t>
-  </si>
-  <si>
-    <t>italiano</t>
-  </si>
-  <si>
-    <t>holandés</t>
-  </si>
-  <si>
-    <t>polaco</t>
-  </si>
-  <si>
-    <t>finlandés</t>
-  </si>
-  <si>
-    <t>portugués</t>
-  </si>
-  <si>
-    <t>inglés</t>
-  </si>
-  <si>
-    <t>checo</t>
+    <t>rumano</t>
   </si>
   <si>
     <t>húngaro</t>
   </si>
   <si>
-    <t>croata</t>
-  </si>
-  <si>
-    <t>danés</t>
-  </si>
-  <si>
-    <t>búlgaro</t>
+    <t>irlandés</t>
+  </si>
+  <si>
+    <t>estonio</t>
+  </si>
+  <si>
+    <t>letón</t>
+  </si>
+  <si>
+    <t>lituano</t>
   </si>
   <si>
     <t>sueco</t>
   </si>
   <si>
-    <t>rumano</t>
-  </si>
-  <si>
     <t>negativa</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>parcialmente</t>
+  </si>
+  <si>
     <t>sí</t>
   </si>
   <si>
     <t>no mencionado</t>
   </si>
   <si>
-    <t>parcialmente</t>
+    <t>ocasional</t>
   </si>
   <si>
     <t>diario</t>
   </si>
   <si>
-    <t>cursos de fitness</t>
-  </si>
-  <si>
-    <t>ocasional</t>
+    <t>entrenamiento de media maratón</t>
+  </si>
+  <si>
+    <t>trail running ocasional</t>
+  </si>
+  <si>
+    <t>deportivo</t>
+  </si>
+  <si>
+    <t>entrenamiento regular</t>
+  </si>
+  <si>
+    <t>gym session</t>
+  </si>
+  <si>
+    <t>caminhadas de fim de tarde</t>
   </si>
   <si>
     <t>Gracias por tu opinión. Estamos revisando los aspectos mencionados para mejorar nuestro servicio.
@@ -294,209 +302,226 @@
 atencionalcliente@kelcetssl.com</t>
   </si>
   <si>
+    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Vamos a enviarte en menos de 72h un nuevo par con la talla correcta, sin coste. Por favor, prepara el par anterior para su recogida.
+Un cordial saludo,
+KelceTS Team
+atencionalcliente@kelcetssl.com</t>
+  </si>
+  <si>
+    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos detectado un retraso en la entrega. Te ofrecemos un 5% de descuento en tu próxima compra. Hemos registrado que el embalaje llegó dañado. Te ofrecemos un 5% de descuento por las molestias. Vamos a enviarte en menos de 72h un nuevo par con la talla correcta, sin coste. Por favor, prepara el par anterior para su recogida. Te ofrecemos un 25% de descuento y envío gratis. Enviaremos un miembro del staff en 72h para recoger el producto defectuoso.
+Un cordial saludo,
+KelceTS Team
+atencionalcliente@kelcetssl.com</t>
+  </si>
+  <si>
+    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Vamos a enviarte en menos de 72h un nuevo par con la talla correcta, sin coste. Por favor, prepara el par anterior para su recogida. Te ofrecemos un 25% de descuento y envío gratis. Enviaremos un miembro del staff en 72h para recoger el producto defectuoso.
+Un cordial saludo,
+KelceTS Team
+atencionalcliente@kelcetssl.com</t>
+  </si>
+  <si>
+    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos registrado que el embalaje llegó dañado. Te ofrecemos un 5% de descuento por las molestias. Vamos a enviarte en menos de 72h un nuevo par con la talla correcta, sin coste. Por favor, prepara el par anterior para su recogida. Te ofrecemos un 25% de descuento y envío gratis. Enviaremos un miembro del staff en 72h para recoger el producto defectuoso.
+Un cordial saludo,
+KelceTS Team
+atencionalcliente@kelcetssl.com</t>
+  </si>
+  <si>
+    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos detectado un retraso en la entrega. Te ofrecemos un 5% de descuento en tu próxima compra. Hemos registrado que el embalaje llegó dañado. Te ofrecemos un 5% de descuento por las molestias. Vamos a enviarte en menos de 72h un nuevo par con la talla correcta, sin coste. Por favor, prepara el par anterior para su recogida.
+Un cordial saludo,
+KelceTS Team
+atencionalcliente@kelcetssl.com</t>
+  </si>
+  <si>
+    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos detectado un retraso en la entrega. Te ofrecemos un 5% de descuento en tu próxima compra. Hemos registrado que el embalaje llegó dañado. Te ofrecemos un 5% de descuento por las molestias. Te ofrecemos un 25% de descuento y envío gratis. Enviaremos un miembro del staff en 72h para recoger el producto defectuoso.
+Un cordial saludo,
+KelceTS Team
+atencionalcliente@kelcetssl.com</t>
+  </si>
+  <si>
+    <t>Gracias por tu comentario. Lo tendremos en cuenta para seguir mejorando nuestro servicio.
+Un cordial saludo,
+KelceTS Team
+atencionalcliente@kelcetssl.com</t>
+  </si>
+  <si>
+    <t>Gracias por tu opinión. Vamos a revisar los aspectos que mencionas para seguir mejorando.
+Un cordial saludo,
+KelceTS Team
+atencionalcliente@kelcetssl.com</t>
+  </si>
+  <si>
     <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos detectado un retraso en la entrega. Te ofrecemos un 5% de descuento en tu próxima compra.
 Un cordial saludo,
 KelceTS Team
 atencionalcliente@kelcetssl.com</t>
   </si>
   <si>
-    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos detectado un retraso en la entrega. Te ofrecemos un 5% de descuento en tu próxima compra. Vamos a enviarte en menos de 72h un nuevo par con la talla correcta, sin coste. Por favor, prepara el par anterior para su recogida.
-Un cordial saludo,
+    <t>Hi there! We're thrilled to hear you're enjoying your new shoes. Your feedback means a lot to us. If you ever need assistance or have any questions, feel free to reach out. Enjoy your runs! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hi there! We're thrilled to hear you received your order so quickly and that everything met your expectations. If you ever need anything else, feel free to reach out to us. Enjoy your new shoes!</t>
+  </si>
+  <si>
+    <t>Hi there! We're thrilled to hear you had a great experience with our lightweight and sturdy shoes. If you ever need assistance with sizing or anything else, feel free to reach out. Keep enjoying your runs! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hola, nos alegra mucho saber que estás disfrutando de tus nuevas zapatillas de KelceTS. Gracias por compartir tu experiencia positiva con nosotros. Si en el futuro necesitas algo más, no dudes en contactarnos. ¡Que tengas un excelente día!</t>
+  </si>
+  <si>
+    <t>Lieber Kunde, vielen Dank für Ihr positives Feedback zu unseren Zapatillas! Wir freuen uns, dass Sie mit der Bestellung und dem Produkt zufrieden sind. Sollten Sie in Zukunft weitere Fragen oder Anliegen haben, zögern Sie nicht, uns zu kontaktieren. Mit freundlichen Grüßen, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Lieber Kunde, vielen Dank für Ihr positives Feedback zu unseren Zapatillas! Wir freuen uns, dass Sie mit der Lieferzeit, der Qualität der Materialien und der Passform zufrieden sind. Falls Sie in Zukunft weitere Fragen oder Anliegen haben, zögern Sie bitte nicht, uns zu kontaktieren. Mit freundlichen Grüßen, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Bonjour! Merci beaucoup pour votre commentaire positif sur nos zapatillas! Nous sommes ravis que vous ayez apprécié le design sobre, le confort et la démarche éthique. Si vous avez besoin de quoi que ce soit, n'hésitez pas à nous contacter. À bientôt!</t>
+  </si>
+  <si>
+    <t>Bonjour! Merci pour votre commentaire positif sur nos zapatillas. Nous sommes ravis que vous ayez apprécié la rapidité de livraison, le packaging écologique et la qualité des matériaux. Pour un usage quotidien ou occasionnel, nos chaussures offrent une adhérence exceptionnelle et une respirabilité optimale. N'hésitez pas à nous contacter si vous avez besoin d'aide supplémentaire. À bientôt! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Grazie per il tuo feedback positivo sulle nostre zapatillas! Siamo felici che tu abbia apprezzato la consegna veloce, la qualità dei materiali e il comfort durante la tua mezza maratona. Per qualsiasi necessità futura, non esitare a contattarci. KelceTS Team</t>
+  </si>
+  <si>
+    <t>Grazie per il tuo feedback positivo sulle nostre zapatillas! Siamo felici che ti stiano bene e che siano comode per il tuo lavoro. Per qualsiasi necessità futura, non esitare a contattarci. KelceTS Team</t>
+  </si>
+  <si>
+    <t>¡Hola! Nos alegra mucho que hayas recibido tu pedido a tiempo y que estés satisfecho con la calidad de nuestros productos. Si en el futuro necesitas algo más, no dudes en contactarnos. ¡Gracias por confiar en nosotros! KelceTS Team</t>
+  </si>
+  <si>
+    <t>¡Hola! Nos alegra mucho saber que estás disfrutando de tus nuevas zapatillas. Si en el futuro necesitas algún otro par o tienes alguna pregunta, no dudes en contactarnos. ¡Gracias por confiar en nosotros! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Olá! Agradecemos o seu feedback positivo sobre as nossas zapatillas. Lamentamos que a talla não tenha sido a ideal para si. Podemos ajudar com uma troca de tamanho, se desejar. Obrigado por escolher as nossas zapatillas! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Beste klant, Bedankt voor je positieve feedback over onze zapatillas! We zijn blij dat je tevreden bent met de levering, de maat en de kwaliteit van de materialen. Als je in de toekomst nog vragen of opmerkingen hebt, aarzel dan niet om contact met ons op te nemen. Met vriendelijke groeten, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Dzień dobry! Cieszymy się, że jesteś zadowolony z naszych zapatillas! Jeśli masz jakiekolwiek pytania lub potrzebujesz pomocy, daj nam znać. Pozdrawiamy, Zespół KelceTS</t>
+  </si>
+  <si>
+    <t>Kiitos palautteestasi! Nos alegra saber que estás satisfecho con tu compra. Si necesitas algo más, no dudes en contactarnos.</t>
+  </si>
+  <si>
+    <t>Γεια σου! Χαίρομαι που οι νέες σου παπούτσια σου άρεσαν τόσο πολύ! Αν χρειαστείς οποιαδήποτε βοήθεια στο μέλλον, μη διστάσεις να επικοινωνήσεις μαζί μας. Συνέχισε να τρέχεις με τις αγαπημένες σου zapatillas! Ευχαριστούμε που επέλεξες την KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Salutare! Ne bucurăm să știm că zapatiltele tale au ajuns la timp și că sunt pe placul tău. Dacă ai nevoie de mai multe informații sau asistență, nu ezita să ne contactezi. Mulțumim pentru feedback!</t>
+  </si>
+  <si>
+    <t>Dear customer, we are truly sorry to hear about the issues you encountered with your recent purchase of our shoes. We understand your disappointment and would like to offer you a prepaid return label for the damaged product. Additionally, we will send you a replacement pair with expedited shipping to ensure a prompt delivery. We apologize for any inconvenience caused and appreciate your feedback to help us improve our products and services. Sincerely, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Dear customer, we are truly sorry to hear about your recent experience with our product. We acknowledge the issues you faced with the delivery time, packaging, materials, and sizing. We would like to offer you a full refund and a replacement pair of zapatillas as a gesture of goodwill. Please let us know the best way to proceed. Sincerely, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hola, lamentamos mucho los problemas que has experimentado con tus zapatillas. Para resolver el tema del color y los materiales, te ofrecemos un reembolso completo o un cambio por otro par. Por favor, contáctanos para coordinar la solución. ¡Gracias por tu feedback!</t>
+  </si>
+  <si>
+    <t>Liebe/r Kunde/in, wir bedauern zutiefst die Unannehmlichkeiten, die Sie mit unserem Produkt erfahren haben. Wir möchten Ihnen eine Lösung anbieten.</t>
+  </si>
+  <si>
+    <t>Liebe/r Kunde/r, 
+Wir entschuldigen uns aufrichtig für die Unannehmlichkeiten mit Ihrer Bestellung. Um das Problem mit dem beschädigten Karton, dem steifen veganen Leder und den Blasen an der Ferse zu lösen, bieten wir Ihnen eine Rückerstattung oder den Austausch der Zapatillas an. Bitte kontaktieren Sie uns für weitere Details. 
+Mit freundlichen Grüßen, 
+KelceTS Team</t>
+  </si>
+  <si>
+    <t>Bonjour, nous sommes désolés d'apprendre votre expérience décevante avec nos zapatillas. Nous comprenons votre frustration et nous nous engageons à résoudre ces problèmes. Nous vous enverrons une étiquette retour gratuite pour le colis endommagé et vous proposerons un échange pour une taille correcte. De plus, nous améliorerons la qualité de nos matériaux pour éviter de futurs problèmes. Merci pour votre feedback. Cordialement, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Bonjour, Nous avons pris en compte vos retours sur nos zapatillas. Nous sommes désolés pour les problèmes rencontrés. Nous allons vous envoyer une étiquette SAV pour le retour. Merci pour votre patience.</t>
+  </si>
+  <si>
+    <t>Gentile cliente, ci dispiace molto per l'inconveniente riscontrato con il nostro prodotto. Per favore, inviaci le foto richieste e valuteremo come procedere per risolvere la situazione. Ci scusiamo per il disagio.</t>
+  </si>
+  <si>
+    <t>Gentile cliente, ci dispiace per l'inconveniente riscontrato con le zapatillas ricevute. Per quanto riguarda il colore e la qualità dei materiali, stiamo lavorando per risolvere la situazione al più presto. Ti terremo aggiornato sui progressi. Cordiali saluti, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hola, lamentamos mucho los inconvenientes que has experimentado con tu pedido. En breve te enviaremos unas zapatillas nuevas con un mensajero más cuidadoso. Además, te enviaremos un vale de descuento para tu próxima compra. Sentimos mucho las molestias. Gracias por tu comprensión. KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hola, lamentamos mucho tu mala experiencia con nuestras zapatillas. Para solucionar los problemas que mencionaste, te ofrecemos un reembolso completo y un cupón de descuento para futuras compras. Esperamos poder recuperar tu confianza. Saludos, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Prezado cliente, lamentamos muito pelos inconvenientes que teve com a sua compra. Para resolver a situação, vamos reembolsar o valor total da compra, incluindo o frete. Por favor, entre em contato para mais detalhes. Atenciosamente, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Beste klant, We vinden het spijtig om te horen over de problemen die je hebt ondervonden met onze zapatillas. We zullen contact met je opnemen om dit op te lossen. Met vriendelijke groet, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Estimado/a cliente, lamentamos los inconvenientes que has experimentado con tu pedido. Queremos solucionar estos problemas de la siguiente manera: te enviaremos una etiqueta de devolución gratuita para que puedas devolver el producto y recibir uno nuevo. Además, incluiremos un par adicional de cordones en el nuevo envío. Sentimos mucho las molestias causadas y esperamos poder mejorar tu experiencia con nosotros. Atentamente, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Kiitos palautteestasi. Pahoittelemme ongelmia tilauksessasi. Haluamme tarjota sinulle ilmaisen palautuksen ja vaihdon sekä hyvityksen postikuluista. Olemme ottaneet asian vakavasti ja varmistamme, että vastaavat tilanteet eivät toistu tulevaisuudessa. Toivomme voivamme palvella sinua paremmin seuraavalla kerralla.</t>
+  </si>
+  <si>
+    <t>Γεια σας, λυπούμαστε πολύ για την αρνητική σας εμπειρία με την παραγγελία σας. Θα θέλαμε να σας προσφέρουμε επιστροφή των χρημάτων ή αντικατάσταση του προϊόντος. Παρακαλούμε στείλτε μας φωτογραφίες του ελαττωματικοϫ προϊόντος. Ευχαριστούμε που μας ενημερώσατε. Με εκτίμηση, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Kedves Ügyfelünk, sajnáljuk a tapasztalt kellemetlenségeket a termékkel kapcsolatban. Szeretnénk segíteni Önnek a problémák megoldásában.</t>
+  </si>
+  <si>
+    <t>Nóta 36: Bhí brón orainn go bhfuair tú do chuid bróga i staid neamhshásúil. Táimid ag iarraidh réiteach a chur ar an bhfadhb. Beidh an tseirbhís do chustaiméirí ag glaoch ort chun cabhrú leat.</t>
+  </si>
+  <si>
+    <t>Estimado cliente, lamentamos los inconvenientes con tu pedido. Hemos identificado los problemas que mencionaste y estamos trabajando para resolverlos.</t>
+  </si>
+  <si>
+    <t>Sveiki, Paldies par jūsu atsauksmi par mūsu produktu. Atvainojiet par jebkuriem neērtībām, ar kurām jūs saskārāties. Mēs piedāvājam risinājumus šādiem jūsu minētajiem jautājumiem: 1) Mēs piedāvājam jums bezmaksas atgriešanu un aizstāšanu ar jaunu pāri zābaku; 2) Mēs uzlabosim mūsu piegādes laiku, lai nodrošinātu, ka nākamreiz saņemsiet savu pasūtījumu ātrāk; 3) Mēs nodrošināsim, ka turpmāk mūsu produkti būs augstākas kvalitātes. Ceram, ka šie pasākumi uzlabos jūsu pieredzi ar mūsu zābakiem. Ar cieņu, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Ačiū už jūsų atsiliepimą apie mūsų produktą. Džiaugiamės, kad siunta atkeliavo laiku ir kad batai atitinka dydį. Atsiprašome dėl suspausto dėžės, stengsime įsitikinti, kad tai nepasikartoja ateityje. Dėl girgždėjimo padėsime jums rasti sprendimą, galbūt reikės pakeisti produktą. Laukiame jūsų atsiliepimo dėl tolesnio naudojimo.</t>
+  </si>
+  <si>
+    <t>Hi there! We're glad your order arrived within the 4-day target. We're sorry to hear about the size issue, consider trying an extra insole for a better fit. If you have any further feedback, feel free to share. KelceTS Team</t>
+  </si>
+  <si>
+    <t>Liebe/r Kunde/in, vielen Dank für Ihr Feedback zu unseren Schuhen. Wir bedauern, dass der Karton beim Versand beschädigt wurde. Gerne bieten wir Ihnen eine Lösung an. Bitte kontaktieren Sie uns für weitere Unterstützung. Mit freundlichen Grüßen, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Bonjour! Merci beaucoup pour votre retour détaillé sur nos zapatillas. Nous sommes désolés d'apprendre que l'emballage était un peu froissé. Pourriez-vous nous envoyer des photos pour que nous puissions améliorer notre processus d'expédition? En ce qui concerne la couleur et la stabilité de la semelle, nous prenons en compte vos commentaires pour améliorer nos produits. Si vous avez d'autres préoccupations, n'hésitez pas à nous contacter. Merci de votre confiance! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hola, gracias por tu comentario sobre las zapatillas que recibiste. Lamentamos que la talla no haya sido la correcta para ti. Te recomendamos probar las plantillas por más tiempo para que se adapten mejor al caminar. Respecto a los materiales, estamos trabajando constantemente en mejorar su calidad. ¡Gracias por tu feedback! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Grazie per il tuo feedback dettagliato sulle nostre zapatillas. Ci dispiace per il problema con l'urto alla scatola, verificheremo con il corriere. Per quanto riguarda la rigidità iniziale dell'intersuola, dovrebbe migliorare con l'uso. Apprezziamo la tua pazienza e ti invitiamo a contattarci per ulteriori dettagli sul lungo periodo. Cordiali saluti, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Beste klant, Bedankt voor uw feedback over uw recente aankoop bij KelceTS S.L. We waarderen uw opmerkingen en streven ernaar om uw ervaring te verbeteren. Als u problemen ondervindt met de tong van de schoenen, raden we aan om contact met ons op te nemen voor mogelijke oplossingen. Met vriendelijke groet, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Olá! Agradecemos o seu feedback sobre as nossas zapatillas. Lamentamos o incidente com a entrega, vamos reforçar o aviso ao carteiro. Em relação à durabilidade da sola, estamos trabalhando para garantir a melhor qualidade. Se precisar de mais assistência, não hesite em contactar-nos. Atenciosamente, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hola, gracias por tu comentario sobre nuestras zapatillas. Lamentamos que el embalaje haya llegado dañado. Para solucionarlo, te ofrecemos un descuento en tu próxima compra. ¡Esperamos que disfrutes de tus zapatillas! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Kiitos palautteestasi! Pahoittelemme, että pakkaus oli hieman vaurioitunut. Voimme tarjota vaihtoa, jos haluat. Kiitos myös positiivisesta palautteesta toimitusajasta. Seuraamme tilannetta tarkasti. Ystävällisin terveisin, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Γεια σας! Ευχαριστούμε για το σχόλιό σας σχετικά με την παραγγελία σας. Λυπούμαστε που η σόλα φαίνεται σκληρή στις πρώτες βόλτες. Θα προτείναμε να δοκιμάσετε να τρέξετε λίγο για να δείτε αν μαλακώσει. Εάν αντιμετωπίσετε οποιοδήποτε άλλο πρόβλημα, παρακαλούμε επικοινωνήστε μαζί μας. Ευχαριστούμε για την κατανόηση. Με εκτίμηση, Ομάδα KelceTS</t>
+  </si>
+  <si>
+    <t>Hej! Tack för din feedback angående dina nya zapatillas. Vi beklagar att kartongen kom bucklig och att plösen kasar lite. För att förbättra sulans hållbarhet, rekommenderar vi regelbunden rengöring och underhåll. Vi hoppas att du fortsätter att njuta av dem under dina löprundor! Med vänliga hälsningar, KelceTS Team</t>
+  </si>
+  <si>
+    <t>"Thank you for your feedback. We are reviewing the aspects mentioned to improve our service.
+Best regards,
 KelceTS Team
-atencionalcliente@kelcetssl.com</t>
-  </si>
-  <si>
-    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos detectado un retraso en la entrega. Te ofrecemos un 5% de descuento en tu próxima compra. Vamos a enviarte en menos de 72h un nuevo par con la talla correcta, sin coste. Por favor, prepara el par anterior para su recogida. Te ofrecemos un 25% de descuento y envío gratis. Enviaremos un miembro del staff en 72h para recoger el producto defectuoso.
-Un cordial saludo,
-KelceTS Team
-atencionalcliente@kelcetssl.com</t>
-  </si>
-  <si>
-    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos detectado un retraso en la entrega. Te ofrecemos un 5% de descuento en tu próxima compra. Hemos registrado que el embalaje llegó dañado. Te ofrecemos un 5% de descuento por las molestias.
-Un cordial saludo,
-KelceTS Team
-atencionalcliente@kelcetssl.com</t>
-  </si>
-  <si>
-    <t>Gracias por tu comentario. Lo tendremos en cuenta para seguir mejorando nuestro servicio.
-Un cordial saludo,
-KelceTS Team
-atencionalcliente@kelcetssl.com</t>
-  </si>
-  <si>
-    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Te ofrecemos un 25% de descuento y envío gratis. Enviaremos un miembro del staff en 72h para recoger el producto defectuoso.
-Un cordial saludo,
-KelceTS Team
-atencionalcliente@kelcetssl.com</t>
-  </si>
-  <si>
-    <t>Lamentamos mucho los inconvenientes encontrados en tu compra. Hemos detectado un retraso en la entrega. Te ofrecemos un 5% de descuento en tu próxima compra. Hemos registrado que el embalaje llegó dañado. Te ofrecemos un 5% de descuento por las molestias. Te ofrecemos un 25% de descuento y envío gratis. Enviaremos un miembro del staff en 72h para recoger el producto defectuoso.
-Un cordial saludo,
-KelceTS Team
-atencionalcliente@kelcetssl.com</t>
-  </si>
-  <si>
-    <t>¡Hola! Nos alegra mucho saber que estás contento con tus nuevas zapatillas. Gracias por compartir tu experiencia positiva con nosotros. Si en el futuro necesitas algo más, no dudes en contactarnos. ¡Que disfrutes al correr con ellas! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Lieber Kunde, vielen Dank für Ihr Feedback zu unseren Schuhen. Wir bedauern, dass Sie Probleme mit der Haltbarkeit festgestellt haben. Wir empfehlen Ihnen, sich bezüglich des Abnutzungsproblems an unseren Kundenservice zu wenden, um eine Lösung zu finden. Wir schätzen Ihr Feedback, da es uns hilft, unsere Produkte zu verbessern. Herzliche Grüße, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Γεια σας! Χαίρομαι που είστε ικανοποιημένος με την αγορά σας από εμάς. Εάν χρειάζεστε οποιαδήποτε βοήθεια στο μέλλον, μη διστάσετε να επικοινωνήσετε μαζί μας. Ευχαριστούμε που επιλέξατε τα προϊόντα μας! Με εκτίμηση, Ομάδα KelceTS</t>
-  </si>
-  <si>
-    <t>Cher client, Nous sommes désolés d'apprendre que vous avez rencontré des problèmes avec votre commande. Nous comprenons votre déception et nous nous engageons à résoudre la situation. Pour les chaussures trop petites, nous vous proposons un échange gratuit pour la bonne taille. Veuillez nous contacter pour organiser cela. Nous vous remercions pour votre compréhension. Cordialement, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Gentile cliente, grazie per il tuo feedback positivo sul nostro prodotto. Siamo felici che le scarpe siano arrivate in tempo e che tu ne sia soddisfatto. Se dovessi avere bisogno di ulteriore assistenza, non esitare a contattarci. Cordiali saluti, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Beste klant, We betreuren het ten zeerste dat je de verkeerde maat schoenen hebt ontvangen en dat de levering langer duurde dan verwacht. We willen dit graag voor je oplossen. Neem alsjeblieft contact met ons op om een retourzending te regelen en de juiste maat te ontvangen. Onze excuses voor het ongemak. Met vriendelijke groeten, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Dzień dobry, Dziękujemy za Twój komentarz dotyczący naszych butów. Przepraszamy za opóźnienie w dostawie oraz uszkodzone opakowanie. Jesteśmy zadowoleni, że produkt dotarł nietknięty. Zalecamy używanie butów z umiarem ze względu na materiały. Prosimy o kontakt, jeśli potrzebujesz dodatkowej pomocy. Pozdrawiamy, Zespół KelceTS</t>
-  </si>
-  <si>
-    <t>Kiitos palautteestasi! Olemme iloisia, että sait kengät nopeasti ja että ne sopivat sinulle hyvin. Jatkamme laadukkaiden tuotteiden tarjoamista, joten voit jatkaa juoksemista tyytyväisenä. KelceTS Team</t>
-  </si>
-  <si>
-    <t>Olá! Ficamos muito felizes em saber que recebeu os sapatos rapidamente e que estão perfeitos para você. Se precisar de mais alguma coisa, não hesite em nos contatar. Obrigado por escolher nossos produtos! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Hi there! We're sorry to hear about the delay in delivery and the damaged packaging of your recent shoe order. We appreciate your feedback on the materials, and we'll work on improving their durability. For occasional use, they should serve you well. If you need further assistance, feel free to reach out. KelceTS Team</t>
-  </si>
-  <si>
-    <t>Bonjour! Nous sommes ravis que vous ayez reçu vos chaussures en moins de 72 heures et qu'elles vous plaisent tant. Si vous avez besoin de quoi que ce soit, n'hésitez pas à nous contacter. Merci pour votre confiance! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Hola, lamentamos los inconvenientes que has experimentado con tu pedido de zapatillas. Queremos asegurarnos de que estés satisfecho con nuestros productos. ¿Podemos ofrecerte alguna solución específica para mejorar tu experiencia?</t>
-  </si>
-  <si>
-    <t>Liebe/r Kunde/in, Vielen Dank für Ihr Feedback zu Ihrem Einkauf bei uns. Wir bedauern, dass die Verpackung beschädigt war und die Materialqualität nicht Ihren Erwartungen entsprach. Als Lösung bieten wir Ihnen an, das Problem mit der Verpackung zu klären und gegebenenfalls eine Rücksendung oder Umtausch der Schuhe zu ermöglichen. Wir möchten sicherstellen, dass Sie zufrieden sind. Mit freundlichen Grüßen, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Liebe/r Kunde/in, Vielen Dank für Ihr positives Feedback zu unseren Schuhen! Wir freuen uns, dass Sie mit Ihrem Kauf zufrieden sind. Bei weiteren Fragen oder Anliegen stehen wir gerne zur Verfügung. Herzliche Grüße, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Dobrý den, děkujeme za Váš pozitivní komentář k našim značkovým botám. Jsme rádi, že jste spokojen s rychlostí doručení, kvalitou materiálů a správnou velikostí. Pokud budete mít v budoucnu jakýkoli dotaz nebo požadavek, neváhejte nás kontaktovat. S pozdravem, Tým KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, gracias por tu comentario. Lamentamos que las zapatillas no hayan cumplido todas tus expectativas. Para problemas de talla, te recomendamos probar las zapatillas en persona antes de comprar. Si necesitas más ayuda, no dudes en contactarnos. ¡Esperamos que puedas disfrutarlas a pesar de todo! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Beste klant, Bedankt voor je feedback over onze zapatillas. We waarderen uw opmerkingen en zullen ons best doen om de kwaliteit van onze materialen te verbeteren. Als u verdere vragen of opmerkingen heeft, aarzel dan niet om contact met ons op te nemen. Met vriendelijke groet, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Kedves ügyfelünk, köszönjük visszajelzését. Sajnáljuk, hogy a termék sérült volt. Javasoljuk, hogy vegye fel velünk a kapcsolatot a cserével kapcsolatban. KelceTS Team</t>
-  </si>
-  <si>
-    <t>Poštovani klijente, primili smo Vaš komentar o našem proizvodu. Žao nam je što ste primijetili oštećenje na kutiji prilikom dostave. Kao rješenje, nudimo Vam mogućnost zamjene kutije ili povrat novca. Nadamo se da će Vam proizvod ipak poslužiti kako ste planirali. Srdačan pozdrav, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Hi there! We're thrilled to hear that you received your shoes in less than 48 hours and that you're enjoying them for your daily runs. If you ever need anything else, feel free to reach out to us. Keep running strong! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Kiitos palautteestasi. Pahoittelemme vahingoittunutta pakkausta ja toimituksen viivästymistä. Ehdotamme korvausta tai vaihtoa tuotteeseen. Otamme asian vakavasti ja pyrimme parantamaan palveluamme.</t>
-  </si>
-  <si>
-    <t>Hej! Vi er glade for at høre, at du har modtaget dine sko så hurtigt og at de passer perfekt. Hvis du nogensinde har brug for hjælp eller har spørgsmål, er du velkommen til at kontakte os. Tak for din støtte! Venlig hilsen, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Драг клиент, благодарим ви за вашето положително мнение за нашите обувки. Очаровани сме, че сте доволен от покупката си. Ако имате нужда от нещо друго или имате въпроси, не се колебайте да се свържете с нас. Поздрави, Екипът на KelceTS</t>
-  </si>
-  <si>
-    <t>Dobrý den, děkujeme za Váš komentář ohledně našich bot. Omlouváme se za poškozené balení, rádi Vám zašleme novou krabici. Pokud máte nějaké další požadavky, dejte nám vědět. S pozdravem, Tým KelceTS</t>
-  </si>
-  <si>
-    <t>Hej! Lamentamos los inconvenientes con la entrega y el embalaje dañado. Para mejorar, te ofrecemos un descuento del 10% en tu próxima compra. ¡Esperamos que disfrutes de tus zapatillas! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Kedves Ügyfelünk, köszönjük visszajelzését a termékkel kapcsolatban. Sajnáljuk, hogy az anyagminőséggel nem elégedett. Javasoljuk, hogy csak továbbra is alkalmanként használja a zapatillákat. KelceTS Team</t>
-  </si>
-  <si>
-    <t>Salutare! Ne pare rău că ai avut o experiență mai puțin plăcută cu livrarea pantofilor tale. Îți recomandăm să verifici produsul și să ne informezi dacă este totul în regulă. Pentru a compensa neplăcerile, îți oferim 10% reducere la următoarea achiziție. Mulțumim pentru înțelegere! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Dzień dobry! Dziękujemy za Twój pozytywny komentarz dotyczący naszych butów. Jesteśmy bardzo zadowoleni, że spełniły Twoje oczekiwania. W razie jakichkolwiek pytań czy problemów, prosimy o kontakt. Pozdrawiamy, Zespół KelceTS</t>
-  </si>
-  <si>
-    <t>Gentile cliente, ci dispiace molto per l'inconveniente riscontrato con le scarpe che ha acquistato. Per favore, ci contatti direttamente per trovare una soluzione e risolvere i problemi riscontrati. Cordiali saluti, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Hej! Tack för din feedback om våra skor. Vi är glada att höra att du är nöjd med din köp och att skorna kom fram så snabbt. Om du behöver något mer, tveka inte att kontakta oss. Ha en bra dag! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Olá, lamentamos muito o ocorrido com sua encomenda. Percebemos que houve um erro no tamanho dos sapatos. Para resolver isso, vamos enviar-lhe o par correto de imediato. Pedimos desculpa pela inconveniência e agradecemos sua compreensão. Atenciosamente, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Αγαπητέ πελάτη, Λυπούμαστε πολύ που τα παπούτσια που λάβατε φτάσανε με καθυστέρηση και με ζημιά στη συσκευασία. Θα θέλαμε να σας προσφέρουμε αντικατάσταση για το προϊόν που είχε ζημιά. Ευχαριστούμε για την κατανόηση.
-Με εκτίμηση, Ομάδα KelceTS</t>
-  </si>
-  <si>
-    <t>Dobrý den, děkujeme za Váš komentář ohledně našich značkových zapatillas. Jsme rádi, že doručení proběhlo včas a že jste spokojen s velikostí. Omlouváme se, že kvalita materiálů není úplně podle Vašich očekávání. Rádi bychom Vám nabídli možnost vrácení zboží a výměnu za jiný model, který by mohl lépe vyhovovat Vašim potřebám. Děkujeme za Vaši loajalitu. S pozdravem, Tým KelceTS</t>
-  </si>
-  <si>
-    <t>Beste klant, Bedankt voor je positieve feedback over onze zapatillas! We zijn verheugd dat je tevreden bent met de snelle levering, goede pasvorm en uitstekende kwaliteit van de materialen. Blijf genieten van je dagelijkse hardloopsessies met onze producten. Met vriendelijke groet, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Hi there! We appreciate your feedback on the recent purchase of our sneakers. We're glad to hear that the delivery was on time and the size was correct. We're sorry to hear about the material quality issue you've encountered. For occasional use like short walks, they should hold up, but we understand your concern about long-term durability. We'd like to offer you a discount on your next purchase as a gesture of goodwill. Thank you for choosing our products. KelceTS Team</t>
-  </si>
-  <si>
-    <t>Kiitos palautteestasi! Olemme iloisia, että toimitus saapui ajoissa ja koko sopii sinulle. Pahoittelemme, että materiaalien laatu ei ole täysin tyydyttävä. Suosittelemme käyttämään kenkiä edelleen satunnaisiin kävelyihin. Seuraamme tilannetta ja tarvittaessa voimme tarjota vaihtoehdon.</t>
-  </si>
-  <si>
-    <t>Kedves Ügyfelünk, köszönjük visszajelzését! Nagyon örülünk, hogy elégedett a vásárlásával. Ha bármilyen kérdése vagy problémája lenne a jövőben, ne habozzon kapcsolatba lépni velünk. KelceTS Team</t>
-  </si>
-  <si>
-    <t>Dziękujemy za Twój komentarz. Z przyjemnością informujemy, że dostawa została zrealizowana zgodnie z oczekiwaniami. Jeśli masz jakiekolwiek problemy z jakością materiałów, prosimy o kontakt, chętnie pomożemy znaleźć rozwiązanie. Pozdrawiamy, Zespół KelceTS</t>
-  </si>
-  <si>
-    <t>Hej! Tack för din feedback angående våra zapatillas. Vi beklagar att materialkvaliteten inte uppfyllde dina förväntningar. Förbättringar är på gång för att säkerställa högre kvalitet. För korta promenader kan de fungera bra, men vi förstår din oro för långvarig hållbarhet. Vi uppskattar din ärlighet och tar dina synpunkter på allvar. Tack för att du valde KelceTS S.L. Vänliga hälsningar, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Dragi klijent, Hvala vam što ste odabrali naše proizvode. Drago nam je čuti da ste zadovoljni s vašom kupnjom. Ako imate bilo kakvih pitanja ili trebate dodatnu pomoć, slobodno nas kontaktirajte. Srdačan pozdrav, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Γεια σου! Ευχαριστούμε που μοιράστηκες την εμπειρία σου μαζί μας. Λυπούμαστε που δεν ήσουν απόλυτα ικανοποιημένος με την ποιότητα των υλικών των παπουτσιών. Θα θέλαμε να σου προτείνουμε μερικές επιλογές για να βελτιώσουμε την εμπειρία σου. Μη διστάσεις να επικοινωνήσεις μαζί μας για περισσότερες λεπτομέρειες. Ευχαριστούμε που επέλεξες την KelceTS!</t>
-  </si>
-  <si>
-    <t>Salutare! Ne bucurăm să știm că ai primit zăpăciții în timp record și că ești mulțumit de calitatea lor. Dacă ai vreo întrebare sau solicitare, nu ezita să ne contactezi. Mulțumim că ai ales KelceTS!</t>
-  </si>
-  <si>
-    <t>Hej! Vi har modtaget din feedback angående de købte sko. Vi beklager de problemer, du har oplevet med leveringstiden og beskadiget emballage. Vi vil arbejde på at forbedre disse områder. Hvis du har brug for yderligere hjælp, er du velkommen til at kontakte os. Mange tak for din støtte. Venlig hilsen, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Dragă client, Mulțumim pentru feedback-ul tău referitor la achiziția ta de zapatillas. Ne pare rău să auzim că calitatea materialelor nu a fost pe deplin satisfăcătoare. Pentru a îmbunătăți experiența ta, te invităm să ne contactezi pentru a discuta opțiunile disponibile. Cu drag, Echipa KelceTS</t>
-  </si>
-  <si>
-    <t>Olá! Agradecemos o seu feedback sobre as nossas zapatillas. Lamentamos que os materiais não pareçam muito duráveis. Para melhorar a durabilidade, recomendamos usar as zapatillas principalmente para caminhadas leves. Esperamos que continue a desfrutar delas!</t>
-  </si>
-  <si>
-    <t>Gentile cliente, grazie per il tuo feedback sui nostri prodotti. Siamo felici che la consegna sia stata veloce e che la taglia sia corretta. Ci dispiace sentire che i materiali non sembrano molto resistenti. Ti consigliamo di limitare l'uso a brevi passeggiate per garantirne la durata nel tempo. Grazie per aver scelto KelceTS S.L.!</t>
-  </si>
-  <si>
-    <t>Hej! Vi har modtaget din feedback om vores produkt. Vi er glade for at høre, at leveringen var hurtig og at størrelsen passer. Vi beklager, at du ikke er tilfreds med kvaliteten af materialerne. Vi vil undersøge dette nærmere og arbejde på at forbedre det. Tak for din ærlige mening. Venlig hilsen, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Poštovani klijent, zahvaljujemo vam na povratnoj informaciji o našim proizvodima. Primili smo vaš komentar i želimo vam ponuditi rješenje za vaše nedoumice. Molimo vas da nam se obratite radi daljnjih koraka. Srdačan pozdrav, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Здравейте, съжаляваме, че получихте продукта с повредено опаковане. Радваме се, че размерът е правилен. Ще се свържем с вас за да решим проблема с опаковката.</t>
-  </si>
-  <si>
-    <t>"Wir bedauern sehr die Unannehmlichkeiten, die bei Ihrem Einkauf aufgetreten sind. Wir haben eine Verzögerung in der Lieferung festgestellt. Wir bieten Ihnen einen Rabatt von 5% auf Ihren nächsten Einkauf an.
+customerservice@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Vielen Dank für Ihre Meinung. Wir überprüfen die genannten Aspekte, um unseren Service zu verbessern.
 Mit freundlichen Grüßen,
 KelceTS Team
 kundenservice@kelcetssl.com"</t>
   </si>
   <si>
-    <t>"Σας ευχαριστούμε για τη γνώμη σας. Επανεξετάζουμε τις πτυχές που αναφέρατε για να βελτιώσουμε την υπηρεσία μας.
-Με φιλικούς χαιρετισμούς,
-Ομάδα KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Nous regrettons beaucoup les désagréments rencontrés lors de votre achat. Nous avons détecté un retard dans la livraison. Nous vous offrons une réduction de 5% sur votre prochain achat. Nous allons vous envoyer une nouvelle paire de la bonne taille, sans frais, dans moins de 72 heures. Veuillez préparer la paire précédente pour la collecte.
+    <t>"Merci pour votre avis. Nous sommes en train de revoir les aspects mentionnés pour améliorer notre service.
 Cordialement,
 Équipe KelceTS
 serviceclient@kelcetssl.com"</t>
@@ -508,13 +533,19 @@
 atencionalcliente@kelcetssl.com"</t>
   </si>
   <si>
-    <t>"We betreuren het zeer dat je problemen hebt ondervonden met je aankoop. We hebben een vertraging in de levering opgemerkt. We bieden je een korting van 5% op je volgende aankoop. We zullen binnen 72 uur een nieuw paar in de juiste maat sturen, zonder kosten. Bereid het vorige paar alstublieft voor op ophalen. We bieden je een korting van 25% en gratis verzending. We sturen een medewerker binnen 72 uur om het defecte product op te halen.
+    <t>"Lamentamos muito os inconvenientes encontrados na sua compra. Vamos enviar-lhe em menos de 72h um novo par com o tamanho correto, sem custo. Por favor, prepare o par anterior para a coleta.
+Atenciosamente,
+Equipe KelceTS
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Dank u voor uw mening. We zijn de genoemde aspecten aan het bekijken om onze service te verbeteren.
 Met vriendelijke groet,
 KelceTS Team
 klantenservice@kelcetssl.com"</t>
   </si>
   <si>
-    <t>"Bardzo przykro nam z powodu problemów związanych z Twoim zakupem. Zauważyliśmy opóźnienie w dostawie. Oferujemy Ci 5% zniżki na następny zakup. Zarejestrowaliśmy, że opakowanie dotarło uszkodzone. Oferujemy Ci 5% zniżki za niedogodności.
+    <t>"Dziękujemy za Twoją opinię. Przeglądamy wspomniane aspekty, aby poprawić naszą usługę.
 Z serdecznymi pozdrowieniami,
 Zespół KelceTS
 atencionalcliente@kelcetssl.com"</t>
@@ -523,7 +554,157 @@
     <t>"Kiitos palautteestasi. Käymme läpi mainitsemasi seikat parantaaksemme palveluamme.
 Ystävällisin terveisin,
 KelceTS Team
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Σας ευχαριστούμε για τη γνώμη σας. Επανεξετάζουμε τις πτυχές που αναφέρατε για να βελτιώσουμε την υπηρεσία μας.
+Με φιλικούς χαιρετισμούς,
+Η ομάδα KelceTS
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Vă mulțumim pentru opinia dumneavoastră. Suntem în proces de revizuire a aspectelor menționate pentru a îmbunătăți serviciul nostru.
+Cu salut cordial,
+Echipa KelceTS
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"We deeply regret the inconveniences encountered with your purchase. We have detected a delay in delivery. We are offering you a 5% discount on your next purchase. We have noted that the packaging arrived damaged. We are offering you an additional 5% discount for the inconvenience. We will send you a new pair in the correct size, at no cost, within 72 hours. Please prepare the previous pair for collection. We are offering you a 25% discount and free shipping. We will send a staff member within 72 hours to collect the defective product.
+Best regards,
+KelceTS Team
+customerservice@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"We deeply regret the inconveniences encountered with your purchase. We will send you a new pair in the correct size at no cost within 72 hours. Please prepare the previous pair for collection. We are offering you a 25% discount and free shipping. We will send a staff member within 72 hours to collect the defective product.
+Best regards,
+KelceTS Team
+customerservice@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Wir bedauern sehr die Unannehmlichkeiten, die bei Ihrem Einkauf aufgetreten sind. Wir haben eine Verzögerung in der Lieferung festgestellt. Wir bieten Ihnen einen Rabatt von 5% auf Ihren nächsten Einkauf an. Wir haben festgestellt, dass die Verpackung beschädigt angekommen ist. Wir bieten Ihnen einen weiteren Rabatt von 5% für die Unannehmlichkeiten an. Wir werden Ihnen innerhalb von weniger als 72 Stunden ein neues Paar in der richtigen Größe kostenlos zusenden. Bitte bereiten Sie das vorherige Paar zur Abholung vor. Wir bieten Ihnen einen Rabatt von 25% und kostenlosen Versand an. Wir werden innerhalb von 72 Stunden ein Mitglied unseres Teams schicken, um das defekte Produkt abzuholen.
+Mit freundlichen Grüßen,
+KelceTS Team
+kundenservice@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Wir bedauern sehr die Unannehmlichkeiten, die bei Ihrem Einkauf aufgetreten sind. Wir haben festgestellt, dass die Verpackung beschädigt angekommen ist. Wir bieten Ihnen einen Rabatt von 5% für die Unannehmlichkeiten an. Innerhalb von weniger als 72 Stunden senden wir Ihnen ein neues Paar in der richtigen Größe, kostenlos. Bitte bereiten Sie das vorherige Paar zur Abholung vor. Wir bieten Ihnen einen Rabatt von 25% und kostenlosen Versand. Ein Mitarbeiter wird innerhalb von 72 Stunden vorbeikommen, um das defekte Produkt abzuholen.
+Mit freundlichen Grüßen,
+KelceTS Team
+kundendienst@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Nous regrettons beaucoup les désagréments rencontrés lors de votre achat. Nous avons détecté un retard dans la livraison. Nous vous offrons une réduction de 5% sur votre prochain achat. Nous avons enregistré que l'emballage est arrivé endommagé. Nous vous offrons une réduction de 5% pour les désagréments. Nous allons vous envoyer une nouvelle paire de la bonne taille, sans frais, en moins de 72 heures. Veuillez préparer la paire précédente pour la récupération.
+Cordialement,
+Équipe KelceTS
+serviceclient@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Nous regrettons beaucoup les désagréments rencontrés lors de votre achat. Nous avons détecté un retard dans la livraison. Nous vous offrons une réduction de 5% sur votre prochain achat. Nous avons enregistré que l'emballage est arrivé endommagé. Nous vous offrons une réduction de 5% pour les désagréments. Nous vous offrons une réduction de 25% et la livraison gratuite. Nous enverrons un membre de notre équipe dans les 72 heures pour récupérer le produit défectueux.
+Cordialement,
+Équipe KelceTS
+serviceclient@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Ci dispiace molto per gli inconvenienti riscontrati nel tuo acquisto. Abbiamo rilevato un ritardo nella consegna. Ti offriamo un 5% di sconto sul tuo prossimo acquisto. Abbiamo registrato che l'imballaggio è arrivato danneggiato. Ti offriamo un 5% di sconto per il disagio. Ti invieremo un nuovo paio della taglia corretta in meno di 72 ore, senza costi. Ti preghiamo di preparare il paio precedente per il ritiro. Ti offriamo un 25% di sconto e spedizione gratuita. Invieremo un membro del nostro staff entro 72 ore per ritirare il prodotto difettoso.
+Un cordiale saluto,
+KelceTS Team
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Ci dispiace molto per gli inconvenienti riscontrati nel tuo acquisto. Ti invieremo un nuovo paio con la taglia corretta, senza costi, in meno di 72 ore. Ti preghiamo di preparare il paio precedente per il ritiro. Ti offriamo uno sconto del 25% e la spedizione gratuita. Invieremo un membro del nostro staff entro 72 ore per ritirare il prodotto difettoso.
+Un cordiale saluto,
+KelceTS Team
+servizioclienti@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Lamentamos muito os inconvenientes encontrados na sua compra. Detectamos um atraso na entrega. Oferecemos-lhe um desconto de 5% na sua próxima compra. Registramos que a embalagem chegou danificada. Oferecemos-lhe um desconto de 5% pelo incómodo. Vamos enviar-lhe em menos de 72 horas um novo par com o tamanho correto, sem custo. Por favor, prepare o par anterior para a recolha. Oferecemos-lhe um desconto de 25% e envio gratuito. Enviaremos um membro da nossa equipe em 72 horas para recolher o produto defeituoso.
+Com os melhores cumprimentos,
+Equipe KelceTS
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"We betreuren het zeer dat je problemen hebt ondervonden met je aankoop. We hebben een vertraging in de levering vastgesteld. We bieden je een korting van 5% op je volgende aankoop. We hebben geregistreerd dat de verpakking beschadigd is aangekomen. We bieden je een korting van 5% voor het ongemak. We zullen binnen 72 uur een nieuw paar in de juiste maat sturen, zonder kosten. Gelieve het vorige paar klaar te maken voor ophaling. We bieden je een korting van 25% en gratis verzending. We zullen binnen 72 uur een medewerker sturen om het defecte product op te halen.
+Met vriendelijke groet,
+KelceTS Team
+klantenservice@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Bardzo nam przykro z powodu problemów związanych z Twoim zakupem. Zauważyliśmy opóźnienie w dostawie. Oferujemy Ci 5% zniżki na następny zakup. Zarejestrowaliśmy, że opakowanie dotarło uszkodzone. Oferujemy Ci 5% zniżki za niedogodności. W ciągu mniej niż 72 godzin wyślemy Ci nową parę w odpowiednim rozmiarze, bez dodatkowych kosztów. Prosimy przygotować poprzednią parę do odbioru.
+Z serdecznymi pozdrowieniami,
+Zespół KelceTS
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Pahoittelemme suuresti ostokseesi liittyviä ongelmia. Olemme havainneet toimituksessa viivästyksen. Tarjoamme sinulle 5% alennuksen seuraavasta ostoksestasi. Olemme rekisteröineet, että pakkaus saapui vahingoittuneena. Tarjoamme sinulle 5% alennuksen tästä aiheutuneista vaivoista. Lähetämme sinulle alle 72 tunnin kuluessa uuden parin oikeassa koossa, ilman lisäkustannuksia. Ole hyvä ja valmistele aiempi pari noudettavaksi. Tarjoamme sinulle 25% alennuksen ja ilmaisen toimituksen. Lähetämme henkilökunnan jäsenen 72 tunnin kuluessa noutamaan viallisen tuotteen.
+Ystävällisin terveisin,
+KelceTS Team
 asiakaspalvelu@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Λυπούμαστε πολύ για τα προβλήματα που αντιμετώπισες στην αγορά σου. Έχουμε εντοπίσει καθυστέρηση στην παράδοση. Σου προσφέρουμε έκπτωση 5% στην επόμενη αγορά σου. Έχουμε καταγράψει ότι η συσκευασία ήρθε φθαρμένη. Σου προσφέρουμε έκπτωση 5% για την ταλαιπωρία. Θα σου στείλουμε σε λιγότερο από 72 ώρες ένα νέο ζευγάρι με το σωστό μέγεθος, χωρίς κόστος. Παρακαλούμε, προετοιμάστε το προηγούμενο ζευγάρι για παραλαβή. Σου προσφέρουμε έκπτωση 25% και δωρεάν αποστολή. Θα στείλουμε ένα μέλος του προσωπικού μας σε 72 ώρες για να παραλάβει το ελαττωματικό προϊόν.
+Με φιλικούς χαιρετισμούς,
+Ομάδα KelceTS
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Nagyon sajnáljuk a vásárlás során felmerült kellemetlenségeket. Észleltük, hogy késés történt a szállításban. 5% kedvezményt kínálunk a következő vásárlásra. Regisztráltuk, hogy a csomagolás sérült volt. 5% kedvezményt kínálunk a kellemetlenségért. 72 órán belül elküldjük az új párt a megfelelő méretben, díjmentesen. Kérjük, készítse elő az előző párt a visszaszállításhoz. 25% kedvezményt és ingyenes szállítást kínálunk. 72 órán belül elküldünk egy munkatársat a hibás termék felvételére.
+Szívélyes üdvözlettel,
+KelceTS Team
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Tá ár leithscéal linn faoi na deacrachtaí a fuair tú le do cheannach. Tá moill bainte amach againn sa seachadadh. Tairgimid duit lascaine 5% ar do cheannachán chéadna. Tá sé cláraithe againn go raibh an t-ualach lofa. Tairgimid duit lascaine 5% mar gheall ar na trioblóidí. Cuirfimid péire nua chugat laistigh de 72h leis an méid ceart, gan costas. Le do thoil, ullmhaigh an péire roimhe seo le haghaidh a bhailiú. Tairgimid duit lascaine 25% agus seachadadh saor in aisce. Cuirfimid ball foirne amach laistigh de 72h chun an táirge lochtach a bhailiú.
+Beannachtaí cordúla,
+Foireann KelceTS
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Vabandame väga teie ostuga seotud ebamugavuste pärast. Oleme tuvastanud viivituse kohaletoimetamises. Pakume teile järgmise ostu puhul 5% allahindlust. Oleme registreerinud, et pakend saabus kahjustatuna. Pakume teile ebamugavuste eest 5% allahindlust. Saadame teile õige suurusega uue paari 72 tunni jooksul tasuta. Palun valmistage eelmine paar tagastamiseks ette. Pakume teile 25% allahindlust ja tasuta saatmist. Saadame 72 tunni jooksul kohale meie töötaja, et kahjustatud toode ära tuua.
+Lugupidamisega,
+KelceTS meeskond
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Mēs ļoti nožēlojam neērtības, kas radušās saistībā ar jūsu pirkumu. Mēs esam konstatējuši piegādes aizkavēšanos. Mēs piedāvājam 5% atlaidi jūsu nākamajam pirkumam. Mēs esam reģistrējuši, ka iepakojums ir bojāts. Mēs piedāvājam 5% atlaidi par sagādātajām neērtībām. Mēs nosūtīsim jums jaunu pāri ar pareizo izmēru mazāk nekā 72 stundu laikā bez maksas. Lūdzu, sagatavojiet iepriekšējo pāri savākšanai.
+Ar cieņu,
+KelceTS komanda
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Ačiū už jūsų nuomonę. Mes peržiūrime minėtus aspektus, siekdami pagerinti mūsų paslaugas.
+Su pagarba,
+KelceTS komanda
+atencionalcliente@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"We deeply regret the inconveniences encountered with your purchase. We will be sending you a new pair in the correct size, at no cost, within less than 72 hours. Please, prepare the previous pair for collection.
+Best regards,
+KelceTS Team
+customerservice@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Vielen Dank für Ihren Kommentar. Wir werden dies berücksichtigen, um unseren Service weiter zu verbessern.
+Mit freundlichen Grüßen,
+KelceTS Team
+kundenservice@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Merci pour votre avis. Nous allons examiner les points que vous avez mentionnés afin de continuer à nous améliorer.
+Cordialement,
+Équipe KelceTS
+serviceclient@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"Grazie per il tuo commento. Lo terremo in considerazione per continuare a migliorare il nostro servizio.
+Un cordiale saluto,
+KelceTS Team
+servizioclienti@kelcetssl.com"</t>
+  </si>
+  <si>
+    <t>"We betreuren het zeer dat je problemen hebt ondervonden bij je aankoop. We hebben een vertraging in de levering vastgesteld. We bieden je een korting van 5% aan op je volgende aankoop.
+Met vriendelijke groet,
+KelceTS Team
+klantenservice@kelcetssl.com"</t>
   </si>
   <si>
     <t>"Obrigado pela sua opinião. Estamos a rever os aspectos mencionados para melhorar o nosso serviço.
@@ -532,339 +713,192 @@
 atencionalcliente@kelcetssl.com"</t>
   </si>
   <si>
-    <t>"We deeply regret the inconveniences encountered with your purchase. We have detected a delay in the delivery. We offer you a 5% discount on your next purchase. We have noted that the packaging arrived damaged. We offer you an additional 5% discount for the inconvenience.
-Best regards,
-KelceTS Team
-customerservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Merci pour votre avis. Nous examinons les aspects mentionnés pour améliorer notre service.
-Cordialement,
-Équipe KelceTS
-serviceclient@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Vielen Dank für Ihren Kommentar. Wir werden dies berücksichtigen, um unseren Service weiter zu verbessern.
-Mit freundlichen Grüßen,
-KelceTS Team
-kundenservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Vielen Dank für Ihre Meinung. Wir überprüfen die genannten Aspekte, um unseren Service zu verbessern.
-Mit freundlichen Grüßen,
-KelceTS Team
-kundenservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Děkujeme za váš názor. Prověřujeme zmíněné aspekty, abychom vylepšili naše služby.
-S přátelským pozdravem,
-Tým KelceTS
+    <t>"Dziękujemy za Twój komentarz. Weźmiemy go pod uwagę, aby nadal poprawiać naszą usługę.
+Z serdecznymi pozdrowieniami,
+Zespół KelceTS
 atencionalcliente@kelcetssl.com"</t>
   </si>
   <si>
-    <t>"We betreuren het zeer dat er problemen zijn ontstaan bij uw aankoop. Wij bieden u een korting van 25% en gratis verzending. We sturen binnen 72 uur een medewerker om het defecte product op te halen.
-Met vriendelijke groet,
-KelceTS Team
-klantenservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Nagyon sajnáljuk a vásárlás során tapasztalt kellemetlenségeket. Észleltünk egy késést a szállításban. 5% kedvezményt kínálunk a következő vásárlásodra. Regisztráltuk, hogy a csomagolás sérült volt. A kellemetlenségért 5% kedvezményt kínálunk.
-Szívélyes üdvözlettel,
-KelceTS csapat
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Žao nam je zbog neugodnosti koje ste naišli prilikom vaše kupnje. Otkrili smo kašnjenje u dostavi. Nudimo vam 5% popusta na vašu sljedeću kupnju. Registrirali smo da je pakiranje stiglo oštećeno. Nudimo vam 5% popusta zbog neugodnosti.
-Srdačan pozdrav,
-KelceTS Team
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Thank you for your feedback. We are reviewing the aspects you mentioned to improve our service.
-Best regards,
-KelceTS Team
-customerservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Pahoittelemme suuresti ostoksesi aiheuttamia hankaluuksia. Olemme havainneet toimituksessa viivästyksen. Tarjoamme sinulle 5% alennuksen seuraavasta ostoksestasi. Olemme rekisteröineet, että pakkaus saapui vahingoittuneena. Tarjoamme sinulle 5% alennuksen vaivannäöstä.
+    <t>"Kiitos kommentistasi. Otamme sen huomioon palvelumme jatkuvassa parantamisessa.
 Ystävällisin terveisin,
 KelceTS Team
 asiakaspalvelu@kelcetssl.com"</t>
   </si>
   <si>
-    <t>"Tak for din feedback. Vi gennemgår de nævnte aspekter for at forbedre vores service.
-Med venlig hilsen,
-KelceTS Team
-kundeservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Благодарим ви за вашето мнение. Преглеждаме споменатите аспекти, за да подобрим нашата услуга.
-Сърдечни поздрави,
-Екипът на KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Velmi litujeme potíže, které jste měli při nákupu. Zjistili jsme zpoždění v dodání. Nabízíme vám 5% slevu na vaši příští nákup. Zaznamenali jsme, že obal dorazil poškozený. Nabízíme vám 5% slevu za nepříjemnosti.
-S přátelským pozdravem,
-Tým KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Vi beklagar verkligen de problem du stött på i ditt köp. Vi har upptäckt en försening i leveransen. Vi erbjuder dig en 5% rabatt på ditt nästa köp. Vi har noterat att förpackningen anlände skadad. Vi erbjuder dig en 5% rabatt för besväret.
-Med vänliga hälsningar,
-KelceTS Team
-kundtjanst@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Nagyon sajnáljuk a vásárlás során felmerült kellemetlenségeket. 25% kedvezményt és ingyenes szállítást kínálunk. 72 órán belül küldünk egy munkatársat a hibás termék begyűjtésére.
-Szívélyes üdvözlettel,
-KelceTS csapat
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Ne pare foarte rău pentru inconvenientele întâmpinate în cadrul achiziției tale. Am detectat o întârziere în livrare. Îți oferim o reducere de 5% la următoarea ta achiziție. Am înregistrat faptul că ambalajul a ajuns deteriorat. Îți oferim o reducere de 5% pentru neplăcerile cauzate.
-Cu salutări cordiale,
-Echipa KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Dziękujemy za Twoją opinię. Przeglądamy wspomniane aspekty, aby poprawić naszą usługę.
-Z serdecznymi pozdrowieniami,
-Zespół KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Ci dispiace molto per gli inconvenienti riscontrati nel tuo acquisto. Abbiamo rilevato un ritardo nella consegna. Ti offriamo un 5% di sconto sul tuo prossimo acquisto. Abbiamo registrato che l'imballaggio è arrivato danneggiato. Ti offriamo un 5% di sconto per il disagio. Ti offriamo un 25% di sconto e spedizione gratuita. Invieremo un membro del nostro staff entro 72 ore per ritirare il prodotto difettoso.
-Un cordiale saluto,
-KelceTS Team
-servizioclienti@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Tack för din åsikt. Vi granskar de nämnda aspekterna för att förbättra vår tjänst.
-Vänliga hälsningar,
+    <t>"Tack för din åsikt. Vi kommer att granska de aspekter du nämner för att fortsätta förbättra.
+Med vänlig hälsning,
 KelceTS Team
 kundservice@kelcetssl.com"</t>
   </si>
   <si>
-    <t>"Lamentamos muito os inconvenientes encontrados na sua compra. Detectamos um atraso na entrega. Oferecemos-lhe um desconto de 5% na sua próxima compra. Vamos enviar-lhe em menos de 72h um novo par com o tamanho correto, sem custo. Por favor, prepare o par anterior para a recolha.
-Com os melhores cumprimentos,
-Equipe KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Λυπούμαστε πολύ για τα προβλήματα που αντιμετώπισες στην αγορά σου. Έχουμε εντοπίσει καθυστέρηση στην παράδοση. Σου προσφέρουμε έκπτωση 5% στην επόμενη αγορά σου. Έχουμε καταγράψει ότι η συσκευασία ήρθε φθαρμένη. Σου προσφέρουμε έκπτωση 5% για την ταλαιπωρία.
-Με φιλικούς χαιρετισμούς,
-Ομάδα KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Dank u voor uw mening. We zijn de genoemde aspecten aan het herzien om onze service te verbeteren.
-Met vriendelijke groet,
-KelceTS Team
-klantenservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"We deeply regret the inconveniences encountered with your purchase. We are offering you a 25% discount and free shipping. We will send a staff member within 72 hours to collect the defective product.
-Best regards,
-KelceTS Team
-customerservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Köszönjük a véleményét. Jelenleg áttekintjük a megemlített szempontokat, hogy javíthassuk szolgáltatásunkat.
-Szívélyes üdvözlettel,
-KelceTS csapat
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Hvala vam na vašem mišljenju. Pregledavamo navedene aspekte kako bismo poboljšali našu uslugu.
-Srdačan pozdrav,
-KelceTS Team
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Vă mulțumim pentru opinia dumneavoastră. Revizuim aspectele menționate pentru a îmbunătăți serviciul nostru.
-Cu salut cordial,
-Echipa KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Vi beklager meget de ulemper, du har oplevet med dit køb. Vi har registreret en forsinkelse i leveringen. Vi tilbyder dig en 5% rabat på dit næste køb. Vi har registreret, at emballagen ankom beskadiget. Vi tilbyder dig en yderligere 5% rabat for ulejligheden.
-Med venlig hilsen,
-KelceTS Team
-kundeservice@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>"Много съжаляваме за неудобствата, с които се сблъскахте при покупката си. Забелязахме закъснение в доставката. Предлагаме ви 5% отстъпка за следващата ви покупка. Отбелязахме, че опаковката е била повредена. Предлагаме ви допълнителна отстъпка от 5% за причинените неудобства.
-Сърдечни поздрави,
-Екипът на KelceTS
-atencionalcliente@kelcetssl.com"</t>
-  </si>
-  <si>
-    <t>Estimado cliente, gracias por tu opinión sobre nuestros zapatos. Lamentamos que hayas experimentado problemas con la durabilidad. Te recomendamos contactar a nuestro servicio al cliente para encontrar una solución al problema de desgaste. Apreciamos tus comentarios, ya que nos ayudan a mejorar nuestros productos. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Me alegra que estés satisfecho con tu compra. Si necesitas ayuda en el futuro, no dudes en contactarnos. ¡Gracias por elegir nuestros productos! Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Dear customer, We are sorry to hear that you have encountered issues with your order. We understand your disappointment and we are committed to resolving the situation. For the shoes being too small, we offer you a free exchange for the correct size. Please contact us to arrange this. Thank you for your understanding. Best regards, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Estimado cliente, gracias por tu comentario positivo sobre nuestro producto. Nos alegra que los zapatos hayan llegado a tiempo y que estés satisfecho. Si necesitas más ayuda, no dudes en contactarnos. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, Lamentamos mucho que hayas recibido la talla incorrecta de zapatos y que la entrega haya tardado más de lo esperado. Nos gustaría resolver esto para ti. Por favor, ponte en contacto con nosotros para organizar una devolución y recibir la talla correcta. Disculpa las molestias. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, Gracias por tu comentario sobre nuestros zapatos. Lamentamos la demora en la entrega y el embalaje dañado. Nos alegra que el producto haya llegado intacto. Recomendamos usar los zapatos con moderación debido a los materiales. Por favor, contáctanos si necesitas ayuda adicional. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Gracias por tu comentario! Estamos contentos de que hayas recibido los zapatos rápidamente y que te queden bien. Seguiremos ofreciendo productos de calidad, así que puedes seguir corriendo feliz. Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Estamos muy contentos de saber que recibiste los zapatos rápidamente y que son perfectos para ti. Si necesitas algo más, no dudes en contactarnos. ¡Gracias por elegir nuestros productos! Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Lamentamos escuchar sobre el retraso en la entrega y el embalaje dañado de tu pedido de zapatillas reciente. Agradecemos tu opinión sobre los materiales, y trabajaremos en mejorar su durabilidad. Para uso ocasional, deberían servirte bien. Si necesitas más ayuda, no dudes en contactarnos. Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Estamos encantados de que hayas recibido tus zapatillas en menos de 72 horas y de que te gusten tanto. Si necesitas algo, no dudes en contactarnos. ¡Gracias por tu confianza! Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado/a cliente, Muchas gracias por tu opinión sobre tu compra con nosotros. Lamentamos que el embalaje estuviera dañado y que la calidad del material no haya cumplido tus expectativas. Como solución, te ofrecemos resolver el problema con el embalaje y, si es necesario, facilitar la devolución o cambio de los zapatos. Queremos asegurarnos de que estés satisfecho/a. Atentamente, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado/a cliente, ¡Muchas gracias por tus comentarios positivos sobre nuestros zapatos! Nos alegra saber que estás satisfecho/a con tu compra. Si tienes alguna pregunta o inquietud, estamos a tu disposición. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, gracias por tu comentario positivo sobre nuestros zapatos de marca. Nos alegra que estés satisfecho con la rapidez de entrega, la calidad de los materiales y el tamaño correcto. Si tienes alguna pregunta o solicitud en el futuro, no dudes en contactarnos. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, Gracias por tus comentarios sobre nuestras zapatillas. Apreciamos tus observaciones y haremos todo lo posible para mejorar la calidad de nuestros materiales. Si tienes más preguntas o comentarios, no dudes en ponerte en contacto con nosotros. Atentamente, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, gracias por su comentario. Lamentamos que el producto haya llegado dañado. Le recomendamos que se ponga en contacto con nosotros para gestionar un cambio. KelceTS Team</t>
-  </si>
-  <si>
-    <t>Estimado cliente, hemos recibido su comentario sobre nuestro producto. Lamentamos que haya notado el daño en la caja durante la entrega. Como solución, le ofrecemos la posibilidad de cambiar la caja o el reembolso del dinero. Esperamos que el producto le sirva como tenía previsto. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Estamos emocionados de saber que recibiste tus zapatillas en menos de 48 horas y que las estás disfrutando para tus carreras diarias. Si necesitas algo más, no dudes en contactarnos. ¡Sigue corriendo fuerte! Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Gracias por tu comentario. Lamentamos el embalaje dañado y el retraso en la entrega. Te proponemos una compensación o cambio de producto. Tomamos esto en serio y buscamos mejorar nuestro servicio.</t>
-  </si>
-  <si>
-    <t>¡Hola! Nos alegra saber que has recibido tus zapatillas tan rápido y que te quedan perfectas. Si alguna vez necesitas ayuda o tienes alguna pregunta, no dudes en contactarnos. ¡Gracias por tu apoyo! Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, gracias por tu opinión positiva sobre nuestras zapatillas. Estamos encantados de que estés satisfecho con tu compra. Si necesitas algo más o tienes alguna pregunta, no dudes en contactarnos. Saludos, Equipo de KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, gracias por tu comentario sobre nuestros zapatos. Lamentamos el embalaje dañado, estaremos encantados de enviarte una nueva caja. Si tienes alguna otra solicitud, háznoslo saber. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Lamentamos los inconvenientes con la entrega y el embalaje dañado. Para mejorar, te ofrecemos un descuento del 10% en tu próxima compra. ¡Esperamos que disfrutes de tus zapatillas! KelceTS Team</t>
-  </si>
-  <si>
-    <t>Estimado cliente, gracias por su feedback sobre el producto. Lamentamos que no esté satisfecho con la calidad del material. Le recomendamos que continúe usando las zapatillas solo ocasionalmente. KelceTS Team</t>
-  </si>
-  <si>
-    <t>¡Hola! Lamentamos que hayas tenido una experiencia menos agradable con la entrega de tus zapatillas. Te recomendamos que verifiques el producto y nos informes si todo está bien. Para compensar las molestias, te ofrecemos un 10% de descuento en tu próxima compra. ¡Gracias por tu comprensión! KelceTS Team</t>
-  </si>
-  <si>
-    <t>¡Hola! Gracias por tu comentario positivo sobre nuestros zapatos. Estamos muy contentos de que hayan cumplido tus expectativas. Si tienes alguna pregunta o problema, no dudes en contactarnos. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, lamentamos mucho el inconveniente con los zapatos que ha comprado. Por favor, contáctenos directamente para encontrar una solución y resolver los problemas encontrados. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Gracias por tu comentario sobre nuestros zapatos. Estamos contentos de saber que estás satisfecho con tu compra y que los zapatos llegaron tan rápido. Si necesitas algo más, no dudes en contactarnos. ¡Que tengas un buen día! Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, lamentamos mucho lo ocurrido con tu pedido. Hemos notado que hubo un error en la talla de los zapatos. Para solucionarlo, te enviaremos el par correcto de inmediato. Pedimos disculpas por las molestias y agradecemos tu comprensión. Atentamente, KelceTS Team</t>
-  </si>
-  <si>
-    <t>Estimado cliente, Lamentamos mucho que los zapatos que recibiste llegaran con retraso y con daños en el embalaje. Nos gustaría ofrecerte un reemplazo para el producto dañado. Gracias por tu comprensión.
-Atentamente, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, gracias por tu comentario sobre nuestras zapatillas de marca. Estamos contentos de que la entrega se haya realizado a tiempo y de que estés satisfecho con la talla. Lamentamos que la calidad de los materiales no cumpla completamente tus expectativas. Nos gustaría ofrecerte la posibilidad de devolver el producto y cambiarlo por otro modelo que pueda adaptarse mejor a tus necesidades. Gracias por tu lealtad. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, ¡Gracias por tu positivo comentario sobre nuestras zapatillas! Nos alegra que estés satisfecho con la entrega rápida, el ajuste perfecto y la excelente calidad de los materiales. Sigue disfrutando de tus sesiones diarias de running con nuestros productos. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Hola! Apreciamos tus comentarios sobre la reciente compra de nuestras zapatillas. Nos alegra saber que la entrega fue puntual y que la talla era correcta. Lamentamos escuchar sobre el problema de calidad de los materiales que has experimentado. Para un uso ocasional como paseos cortos, deberían resistir, pero entendemos tu preocupación sobre la durabilidad a largo plazo. Nos gustaría ofrecerte un descuento en tu próxima compra como gesto de buena voluntad. Gracias por elegir nuestros productos. Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Gracias por tu comentario! Estamos contentos de que la entrega haya sido puntual y la talla te quede bien. Lamentamos que la calidad de los materiales no sea completamente satisfactoria. Te recomendamos seguir utilizando las zapatillas para caminatas ocasionales. Estaremos atentos y, si es necesario, podemos ofrecerte una alternativa.</t>
-  </si>
-  <si>
-    <t>Estimado cliente, ¡gracias por tu feedback! Nos alegra mucho que estés satisfecho con tu compra. Si tienes alguna pregunta o problema en el futuro, no dudes en contactarnos. KelceTS Team</t>
-  </si>
-  <si>
-    <t>Gracias por tu comentario. Nos complace informarte que la entrega se ha realizado según lo esperado. Si tienes algún problema con la calidad de los materiales, por favor contáctanos, estaremos encantados de ayudarte a encontrar una solución. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Gracias por tu comentario sobre nuestras zapatillas. Lamentamos que la calidad del material no haya cumplido tus expectativas. Estamos trabajando en mejoras para garantizar una mayor calidad. Para paseos cortos pueden funcionar bien, pero entendemos tu preocupación por la durabilidad a largo plazo. Apreciamos tu honestidad y tomamos en serio tus comentarios. Gracias por elegir KelceTS S.L. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, Gracias por elegir nuestros productos. Nos alegra saber que está satisfecho con su compra. Si tiene alguna pregunta o necesita ayuda adicional, no dude en ponerse en contacto con nosotros. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Gracias por compartir tu experiencia con nosotros. Lamentamos que no hayas estado completamente satisfecho con la calidad de los materiales de los zapatos. Nos gustaría sugerirte algunas opciones para mejorar tu experiencia. No dudes en contactarnos para más detalles. ¡Gracias por elegir KelceTS Team!</t>
-  </si>
-  <si>
-    <t>¡Hola! Nos alegra saber que recibiste las zapatillas en tiempo récord y que estás satisfecho con su calidad. Si tienes alguna pregunta o solicitud, no dudes en contactarnos. ¡Gracias por elegir KelceTS!</t>
-  </si>
-  <si>
-    <t>¡Hola! Hemos recibido tu comentario sobre las zapatillas compradas. Lamentamos los problemas que has experimentado con el tiempo de entrega y el embalaje dañado. Trabajaremos para mejorar estas áreas. Si necesitas más ayuda, no dudes en contactarnos. Muchas gracias por tu apoyo. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, Gracias por tu opinión sobre tu compra de zapatillas. Lamentamos escuchar que la calidad de los materiales no fue completamente satisfactoria. Para mejorar tu experiencia, te invitamos a contactarnos para discutir las opciones disponibles. Atentamente, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>¡Hola! Agradecemos tu opinión sobre nuestras zapatillas. Lamentamos que los materiales no parezcan muy duraderos. Para mejorar la durabilidad, recomendamos usar las zapatillas principalmente para caminatas ligeras. ¡Esperamos que sigas disfrutándolas!</t>
-  </si>
-  <si>
-    <t>Estimado cliente, gracias por tu opinión sobre nuestros productos. Nos alegra que la entrega haya sido rápida y que la talla sea correcta. Lamentamos escuchar que los materiales no parecen muy resistentes. Te recomendamos limitar su uso a breves paseos para asegurar su durabilidad en el tiempo. ¡Gracias por elegir KelceTS S.L.!</t>
-  </si>
-  <si>
-    <t>¡Hola! Hemos recibido tu opinión sobre nuestro producto. Nos alegra saber que la entrega fue rápida y que la talla es correcta. Lamentamos que no estés satisfecho con la calidad de los materiales. Investigaremos esto más a fondo y trabajaremos en mejorarlo. Gracias por tu honesta opinión. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado cliente, gracias por su comentario sobre nuestros productos. Hemos recibido su opinión y queremos ofrecerle una solución a sus inquietudes. Por favor, contáctenos para seguir adelante. Saludos cordiales, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, lamentamos que hayas recibido el producto con el embalaje dañado. Nos alegra que la talla sea correcta. Nos pondremos en contacto contigo para resolver el problema del embalaje.</t>
+    <t>¡Hola! Estamos encantados de saber que estás disfrutando tus nuevas zapatillas. Tu opinión es muy importante para nosotros. Si necesitas ayuda o tienes alguna pregunta, no dudes en contactarnos. ¡Disfruta de tus carreras! Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>¡Hola! Estamos encantados de saber que recibiste tu pedido tan rápido y que todo cumplió tus expectativas. Si necesitas algo más, no dudes en contactarnos. ¡Disfruta tus nuevas zapatillas!</t>
+  </si>
+  <si>
+    <t>¡Hola! Estamos emocionados de escuchar que tuviste una excelente experiencia con nuestros zapatos ligeros y resistentes. Si necesitas ayuda con la talla u otra cosa, no dudes en contactarnos. ¡Sigue disfrutando de tus carreras! Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Hello, we are very happy to hear that you are enjoying your new KelceTS sneakers. Thank you for sharing your positive experience with us. If you need anything else in the future, feel free to reach out to us. Have a great day!</t>
+  </si>
+  <si>
+    <t>Estimado cliente, ¡muchas gracias por tus comentarios positivos sobre nuestras zapatillas! Nos alegra saber que estás satisfecho con el pedido y el producto. Si tienes alguna pregunta o necesitas ayuda en el futuro, no dudes en ponerte en contacto con nosotros. Saludos cordiales, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado cliente, ¡muchas gracias por tus comentarios positivos sobre nuestras zapatillas! Nos alegra que estés satisfecho con el tiempo de entrega, la calidad de los materiales y el ajuste. Si en el futuro tienes más preguntas o inquietudes, no dudes en contactarnos. Saludos cordiales, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>¡Hola! ¡Muchas gracias por tu comentario positivo sobre nuestras zapatillas! Estamos encantados de que hayas disfrutado del diseño sobrio, la comodidad y el enfoque ético. Si necesitas algo, no dudes en ponerte en contacto con nosotros. ¡Hasta pronto!</t>
+  </si>
+  <si>
+    <t>¡Hola! Gracias por tu comentario positivo sobre nuestras zapatillas. Estamos encantados de que hayas disfrutado de la rapidez de entrega, el embalaje ecológico y la calidad de los materiales. Para un uso diario u ocasional, nuestros zapatos ofrecen un agarre excepcional y una transpirabilidad óptima. No dudes en contactarnos si necesitas ayuda adicional. ¡Hasta pronto! Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>¡Gracias por tu feedback positivo sobre nuestras zapatillas! Estamos felices de que hayas disfrutado de la entrega rápida, la calidad de los materiales y la comodidad durante tu media maratón. Para cualquier necesidad futura, no dudes en contactarnos. KelceTS Team</t>
+  </si>
+  <si>
+    <t>Gracias por tu comentario positivo sobre nuestras zapatillas! Nos alegra que te queden bien y que sean cómodas para tu trabajo. Para cualquier necesidad futura, no dudes en contactarnos. Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Hola! Agradecemos tu feedback positivo sobre nuestras zapatillas. Lamentamos que la talla no haya sido la ideal para ti. Podemos ayudarte con un cambio de talla, si lo deseas. ¡Gracias por elegir nuestras zapatillas! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Estimado cliente, ¡Gracias por tus comentarios positivos sobre nuestras zapatillas! Nos alegra que estés satisfecho con la entrega, la talla y la calidad de los materiales. Si en el futuro tienes alguna pregunta o comentario, no dudes en ponerte en contacto con nosotros. Saludos cordiales, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>¡Hola! ¡Nos alegra que estés contento con nuestras zapatillas! Si tienes alguna pregunta o necesitas ayuda, háznoslo saber. Saludos, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>¡Gracias por tu comentario! Nos alegra saber que estás contento con tu compra. Si necesitas algo más, no dudes en contactarnos.</t>
+  </si>
+  <si>
+    <t>¡Hola! ¡Me alegra que te hayan gustado tanto tus nuevos zapatos! Si necesitas ayuda en el futuro, no dudes en contactarnos. ¡Sigue corriendo con tus zapatillas favoritas! Gracias por elegir KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>¡Hola! Nos alegra saber que tus zapatillas llegaron a tiempo y que te gustan. Si necesitas más información o ayuda, no dudes en contactarnos. ¡Gracias por tu opinión!</t>
+  </si>
+  <si>
+    <t>Estimado cliente, lamentamos sinceramente escuchar sobre los problemas que encontraste con tu compra reciente de nuestros zapatos. Entendemos tu decepción y nos gustaría ofrecerte una etiqueta de devolución prepagada para el producto dañado. Además, te enviaremos un par de reemplazo con envío acelerado para garantizar una entrega rápida. Pedimos disculpas por cualquier inconveniente causado y agradecemos tus comentarios para ayudarnos a mejorar nuestros productos y servicios. Atentamente, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado cliente, lamentamos sinceramente escuchar sobre tu reciente experiencia con nuestro producto. Reconocemos los problemas que enfrentaste con el tiempo de entrega, el embalaje, los materiales y la talla. Nos gustaría ofrecerte un reembolso completo y un par de zapatillas de reemplazo como gesto de buena voluntad. Por favor, háznos saber la mejor manera de proceder. Atentamente, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Hi, we are very sorry for the issues you have experienced with your sneakers. To address the color and materials problem, we offer you a full refund or an exchange for another pair. Please get in touch with us to arrange the solution. Thank you for your feedback!</t>
+  </si>
+  <si>
+    <t>Estimado/a cliente, lamentamos profundamente las molestias que ha experimentado con nuestro producto. Nos gustaría ofrecerle una solución.</t>
+  </si>
+  <si>
+    <t>Estimado/a cliente, 
+Nos disculpamos sinceramente por las molestias con su pedido. Para resolver el problema con la caja dañada, el cuero vegano rígido y las ampollas en el talón, le ofrecemos un reembolso o el cambio de las zapatillas. Por favor, contáctenos para más detalles. 
+Atentamente, 
+Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Hello, we are sorry to hear about your disappointing experience with our sneakers. We understand your frustration and we are committed to resolving these issues. We will send you a free return label for the damaged package and offer you an exchange for the correct size. Additionally, we will improve the quality of our materials to avoid future issues. Thank you for your feedback. Best regards, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hola, Hemos tomado nota de tus comentarios sobre nuestras zapatillas. Lamentamos los problemas que has experimentado. Te enviaremos una etiqueta de devolución. Gracias por tu paciencia.</t>
+  </si>
+  <si>
+    <t>Estimado cliente, lamentamos mucho el inconveniente experimentado con nuestro producto. Por favor, envíanos las fotos solicitadas y evaluaremos cómo proceder para resolver la situación. Disculpa las molestias.</t>
+  </si>
+  <si>
+    <t>Estimado cliente, lamentamos el inconveniente con las zapatillas recibidas. En cuanto al color y la calidad de los materiales, estamos trabajando para resolver la situación lo antes posible. Te mantendremos informado sobre los avances. Saludos cordiales, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado cliente, lamentamos mucho los inconvenientes que tuvo con su compra. Para resolver la situación, vamos a reembolsar el valor total de la compra, incluido el envío. Por favor, póngase en contacto para más detalles. Atentamente, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado cliente, Lamentamos escuchar sobre los problemas que has experimentado con nuestras zapatillas. Nos pondremos en contacto contigo para resolver esto. Atentamente, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Dear customer, we apologize for the inconveniences you have experienced with your order. We want to solve these issues as follows: we will send you a free return label so you can return the product and receive a new one. Additionally, we will include an extra pair of laces in the new shipment. We are very sorry for the inconvenience caused and we hope to improve your experience with us. Sincerely, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Gracias por tu feedback. Lamentamos los problemas con tu pedido. Queremos ofrecerte una devolución y cambio gratuitos, además de un reembolso por los gastos de envío. Hemos tomado en serio la situación y nos aseguraremos de que situaciones similares no se repitan en el futuro. Esperamos poder atenderte mejor la próxima vez.</t>
+  </si>
+  <si>
+    <t>Hola, lamentamos mucho tu mala experiencia con tu pedido. Nos gustaría ofrecerte un reembolso o reemplazo del producto. Por favor, envíanos fotos del producto defectuoso. Gracias por informarnos. Saludos, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado cliente, lamentamos las molestias experimentadas con el producto. Nos gustaría ayudarte a resolver los problemas.</t>
+  </si>
+  <si>
+    <t>Nota 36: Lamentamos que hayas recibido tus zapatillas en una condición insatisfactoria. Estamos tratando de resolver el problema. El servicio al cliente se pondrá en contacto contigo para ayudarte.</t>
+  </si>
+  <si>
+    <t>Dear customer, we apologize for the inconveniences with your order. We have identified the issues you mentioned and we are working to resolve them.</t>
+  </si>
+  <si>
+    <t>Hola, Gracias por tu comentario sobre nuestro producto. Lamentamos cualquier inconveniente que hayas experimentado. Te ofrecemos soluciones a los problemas que mencionaste: 1) Te ofrecemos devolución gratuita y reemplazo por un nuevo par de zapatillas; 2) Mejoraremos nuestro tiempo de entrega para asegurar que recibas tu pedido más rápido la próxima vez; 3) Nos aseguraremos de que nuestros productos sean de mayor calidad en el futuro. Esperamos que estas medidas mejoren tu experiencia con nuestras zapatillas. Saludos, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Gracias por tu comentario sobre nuestro producto. Nos alegra que el envío haya llegado a tiempo y que los zapatos sean del tamaño correcto. Lamentamos la caja comprimida, nos aseguraremos de que no vuelva a ocurrir en el futuro. Respecto al ligero crujido, te ayudaremos a encontrar una solución, quizás sea necesario cambiar el producto. Esperamos tu feedback sobre el uso continuado.</t>
+  </si>
+  <si>
+    <t>¡Hola! Nos alegra que tu pedido haya llegado dentro del plazo de 4 días. Lamentamos escuchar sobre el problema de talla, considera probar una plantilla extra para un mejor ajuste. Si tienes más comentarios, no dudes en compartirlos. Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado/a cliente, gracias por tu opinión sobre nuestros zapatos. Lamentamos que la caja haya sido dañada durante el envío. Estamos aquí para ofrecerte una solución. Por favor, contáctanos para más ayuda. Atentamente, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Hello! Thank you very much for your detailed feedback on our sneakers. We are sorry to hear that the packaging was a bit wrinkled. Could you send us some photos so we can improve our shipping process? Regarding the color and sole stability, we take your comments into account to enhance our products. If you have any other concerns, feel free to contact us. Thank you for your trust! KelceTS Team</t>
+  </si>
+  <si>
+    <t>Gracias por tu feedback detallado sobre nuestras zapatillas. Lamentamos el problema con el golpe en la caja, lo revisaremos con la empresa de transporte. En cuanto a la rigidez inicial de la entresuela, debería mejorar con el uso. Agradecemos tu paciencia y te animamos a contactarnos para más detalles a largo plazo. Saludos cordiales, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Estimado cliente, Gracias por tus comentarios sobre tu compra reciente en KelceTS S.L. Valoramos tus opiniones y nos esforzamos por mejorar tu experiencia. Si tienes problemas con la lengüeta de los zapatos, te recomendamos que te pongas en contacto con nosotros para posibles soluciones. Saludos cordiales, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Hola! Agradecemos tu feedback sobre nuestras zapatillas. Lamentamos el incidente con la entrega, vamos a reforzar el aviso al cartero. En cuanto a la durabilidad de la suela, estamos trabajando para garantizar la mejor calidad. Si necesitas más ayuda, no dudes en contactarnos. Atentamente, KelceTS Team</t>
+  </si>
+  <si>
+    <t>Hello, thank you for your feedback on our sneakers. We are sorry that the packaging arrived damaged. To make it right, we offer you a discount on your next purchase. We hope you enjoy your sneakers! KelceTS Team</t>
+  </si>
+  <si>
+    <t>¡Gracias por tu comentario! Lamentamos que el embalaje haya sufrido daños. Podemos ofrecerte un cambio si lo deseas. También agradecemos tu comentario positivo sobre el tiempo de entrega. Estamos atentos a la situación. Saludos cordiales, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Hola! Gracias por tu comentario sobre tu pedido. Lamentamos que la suela parezca dura en los primeros paseos. Te recomendamos intentar correr un poco para ver si se ablanda. Si tienes cualquier otro problema, por favor contáctanos. Gracias por tu comprensión. Saludos, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>¡Hola! Gracias por tus comentarios sobre tus nuevas zapatillas. Lamentamos que la caja haya llegado un poco dañada y que la lengüeta se deslice un poco. Para mejorar la durabilidad de la suela, te recomendamos limpiarlas y mantenerlas regularmente. ¡Esperamos que sigas disfrutándolas en tus carreras! Saludos, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
+- Envío urgente de nuevo par con talla correcta. Recojo del anterior.
+Firmado: Asistente IA de KelceTS S.L.</t>
   </si>
   <si>
     <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
 - Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
-Firmado: Asistente IA de KelceTS S.L.</t>
-  </si>
-  <si>
-    <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
-- Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
-- Envío urgente de nuevo par con talla correcta. Recojo del anterior.
-Firmado: Asistente IA de KelceTS S.L.</t>
-  </si>
-  <si>
-    <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
-- Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
+- Evaluar calidad del embalaje con proveedor logístico.
 - Envío urgente de nuevo par con talla correcta. Recojo del anterior.
 - Revisar materiales con proveedor. Plan de sustitución urgente.
 Firmado: Asistente IA de KelceTS S.L.</t>
   </si>
   <si>
     <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
+- Envío urgente de nuevo par con talla correcta. Recojo del anterior.
+- Revisar materiales con proveedor. Plan de sustitución urgente.
+Firmado: Asistente IA de KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
+- Evaluar calidad del embalaje con proveedor logístico.
+- Envío urgente de nuevo par con talla correcta. Recojo del anterior.
+- Revisar materiales con proveedor. Plan de sustitución urgente.
+Firmado: Asistente IA de KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
 - Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
 - Evaluar calidad del embalaje con proveedor logístico.
-Firmado: Asistente IA de KelceTS S.L.</t>
-  </si>
-  <si>
-    <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
-- Revisar materiales con proveedor. Plan de sustitución urgente.
+- Envío urgente de nuevo par con talla correcta. Recojo del anterior.
 Firmado: Asistente IA de KelceTS S.L.</t>
   </si>
   <si>
@@ -875,161 +909,162 @@
 Firmado: Asistente IA de KelceTS S.L.</t>
   </si>
   <si>
-    <t>El cliente está muy contento con las zapatillas recibidas, destacando la rapidez en la entrega, el buen embalaje, la talla correcta y la calidad de los materiales. Utiliza las zapatillas a diario y afirma que han superado sus expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha mencionado problemas de durabilidad en los zapatos recibidos. Se recomienda seguir el caso con el servicio al cliente para buscar una solución.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado su satisfacción con la compra de las zapatillas. No se han identificado problemas en el análisis del comentario.</t>
-  </si>
-  <si>
-    <t>Se ha identificado que el cliente ha tenido problemas con la talla de las zapatillas y el envío ha superado las 96 horas. Se recomienda gestionar un cambio de talla de forma gratuita y mejorar los tiempos de entrega. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>El cliente ha dejado un comentario positivo sobre el producto recibido.</t>
-  </si>
-  <si>
-    <t>Se ha recibido un comentario negativo de un cliente indicando que ha recibido la talla incorrecta de zapatos y que la entrega se retrasó. Se recomienda gestionar una devolución y envío de la talla correcta.</t>
-  </si>
-  <si>
-    <t>El cliente reportó retraso en la entrega, embalaje dañado y materiales que podrían no ser muy duraderos. Producto no cumple totalmente expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado su satisfacción con la rapidez de entrega, el buen ajuste y la calidad de los materiales de las zapatillas. El producto cumple con sus expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado su satisfacción con el envío rápido, el buen estado de los zapatos, la talla correcta y la calidad de los materiales. Uso diario y cumple sus expectativas.</t>
-  </si>
-  <si>
-    <t>Se identificaron problemas en la entrega y en el embalaje del producto. El cliente menciona que los materiales no parecen muy duraderos. La zapatilla es de talla correcta y se utilizará de forma ocasional. La satisfacción del cliente es parcial.</t>
-  </si>
-  <si>
-    <t>El cliente ha recibido las zapatillas en menos de 72 horas, en perfecto estado y está muy satisfecho con la talla y la calidad de los materiales. Uso diario. Cumple expectativas.</t>
-  </si>
-  <si>
-    <t>Se ha recibido un comentario negativo de un cliente respecto a la calidad de los materiales y el embalaje dañado de un pedido de zapatillas.</t>
-  </si>
-  <si>
-    <t>El cliente recibió las zapatillas en menos de 96h, pero reporta que el embalaje estaba dañado y la calidad de los materiales no fue la esperada. Uso ocasional. Producto no cumple completamente las expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado una experiencia positiva con el producto adquirido. No se mencionan problemas significativos que requieran acción interna.</t>
-  </si>
-  <si>
-    <t>El cliente ha dejado un comentario positivo sobre la compra de las zapatillas, destacando la rapidez de entrega, la calidad de los materiales y el tamaño correcto. Uso diario. Cumple expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente menciona problemas con la talla y los materiales de las zapatillas. No considera devolverlas pero sugiere mejorar la experiencia de compra permitiendo probarlas antes. El producto no ha cumplido completamente sus expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado que los materiales de las zapatillas se sienten de baja calidad. Se debe mejorar la calidad de los materiales para futuros productos.</t>
-  </si>
-  <si>
-    <t>Se ha recibido un comentario negativo de un cliente respecto a la calidad del producto y el embalaje. Se recomienda gestionar un cambio por daños en el producto.</t>
-  </si>
-  <si>
-    <t>Se identificaron problemas en la entrega del producto, daño en el embalaje y calidad parcial de los materiales. Se sugiere ofrecer al cliente la opción de cambio de caja o reembolso.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado su satisfacción con el envío rápido, la calidad de los materiales y el ajuste correcto de las zapatillas. Ha mencionado que las usa diariamente para correr.</t>
-  </si>
-  <si>
-    <t>El cliente reporta embalaje dañado, retraso en entrega y calidad de materiales parcial. Producto no cumple expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado su satisfacción con la rapidez de entrega, el ajuste correcto de la talla y la calidad de los materiales. El producto cumple con sus expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado una opinión positiva sobre las zapatillas recibidas, destacando la rapidez en la entrega, el buen estado del embalaje, la talla correcta, la calidad de los materiales y el uso diario. Además, menciona estar muy satisfecho con la compra.</t>
-  </si>
-  <si>
-    <t>Se identificaron problemas en el envío, embalaje y calidad de materiales en el comentario del cliente.</t>
-  </si>
-  <si>
-    <t>El cliente reportó retraso en la entrega y embalaje dañado. Se ofreció un descuento del 10% para futuras compras.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado insatisfacción con la calidad de los materiales de las zapatillas. Se recomienda monitorizar este aspecto en futuros productos.</t>
-  </si>
-  <si>
-    <t>El cliente reportó retraso en la entrega y embalaje dañado. Recomendamos revisar proceso de envíos y embalaje para mejorar la experiencia del cliente.</t>
-  </si>
-  <si>
-    <t>El cliente ha dejado un comentario positivo sobre las zapatillas recibidas, destacando la rapidez de entrega, el buen embalaje, la talla correcta y la calidad de los materiales. Indica que las usa a diario y está muy satisfecho con la compra.</t>
-  </si>
-  <si>
-    <t>Se ha recibido un comentario negativo de un cliente respecto a la calidad de las zapatillas. Se requiere seguimiento y solución.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado satisfacción con el envío rápido, el buen embalaje, la talla correcta y la calidad de los materiales. Utiliza las zapatillas diariamente para correr y considera que el producto cumple sus expectativas.</t>
-  </si>
-  <si>
-    <t>Se identificó un problema con el envío del producto al cliente. Se procederá a enviarle el par correcto de zapatos de inmediato para solucionar la situación.</t>
-  </si>
-  <si>
-    <t>El cliente ha reportado que los zapatos llegaron con retraso y con daños en la caja. Se sugiere ofrecer un reemplazo por el producto dañado.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado que la calidad de los materiales no es la esperada. Se sugiere ofrecerle la opción de devolución y cambio por otro modelo.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado una experiencia positiva con las zapatillas recibidas, destacando la rapidez en la entrega, la buena talla y la calidad de los materiales. El producto cumple con sus expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha mencionado problemas con la calidad de los materiales de las zapatillas. Se le ha ofrecido un descuento en su próxima compra como gesto de buena voluntad.</t>
-  </si>
-  <si>
-    <t>El cliente recibió las zapatillas a tiempo y la talla es correcta, pero menciona que la calidad de los materiales no es muy buena. Recomienda su uso para caminatas ocasionales. Se sugiere seguir el caso y considerar una posible solución.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado una opinión positiva sobre el producto adquirido.</t>
-  </si>
-  <si>
-    <t>El cliente recibió las zapatillas en 96 horas, el embalaje estaba en buen estado, la talla es correcta, la calidad de los materiales es parcialmente buena, las usa ocasionalmente y considera que el producto cumple parcialmente sus expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado insatisfacción con la calidad de los materiales de las zapatillas. Se están implementando mejoras para abordar este problema.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado su satisfacción con el producto en idioma croata. No se han reportado problemas con el envío, embalaje, talla o calidad de los materiales. El cliente utiliza las zapatillas diariamente para correr y considera que el producto cumple con sus expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente recibió las zapatillas en menos de 96h y la talla fue correcta, pero menciona que la calidad de los materiales no es muy buena. Sugiere uso ocasional y duda sobre la durabilidad a largo plazo. Producto no cumple totalmente las expectativas.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado su satisfacción con la rapidez de entrega, la calidad de los materiales y el ajuste correcto de la talla. Uso diario de los productos y cumple con las expectativas.</t>
-  </si>
-  <si>
-    <t>Se ha recibido un comentario negativo de un cliente sobre las zapatillas compradas. Se mencionan problemas con el tiempo de entrega y embalaje dañado. Se debe mejorar la calidad de los materiales. Firmado: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado que la calidad de los materiales de las zapatillas no es muy buena. Se recomienda revisar la calidad de los materiales con el proveedor para futuras mejoras.</t>
-  </si>
-  <si>
-    <t>El cliente ha mencionado preocupaciones sobre la durabilidad de los materiales de las zapatillas. Se recomienda revisar la calidad de los materiales y considerar mejoras para futuros productos.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado que los materiales de las zapatillas no parecen muy resistentes. Se sugiere revisar la calidad de los materiales para futuros productos.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado que la calidad de los materiales no es satisfactoria. Se recomienda investigar y mejorar este aspecto del producto.</t>
-  </si>
-  <si>
-    <t>El cliente ha expresado que la calidad de los materiales no es alta y que no está seguro de la durabilidad a largo plazo. La zapatilla se recibió dentro del plazo de 96 horas, la talla es correcta y el embalaje estaba en buenas condiciones. El cliente utiliza las zapatillas ocasionalmente para cortas caminatas.</t>
-  </si>
-  <si>
-    <t>El cliente reportó que recibió las zapatillas con el embalaje dañado. Talla correcta. Materiales parcialmente satisfactorios. Uso ocasional. Producto no cumple completamente expectativas.</t>
+    <t>Este cliente ha recibido una valoración negativa. Deben notificarse los siguientes puntos:
+- Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
+Firmado: Asistente IA de KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado una experiencia positiva con las zapatillas recibidas. Destaca la rapidez en la entrega, buen estado del embalaje, talla correcta, materiales de calidad y cumplimiento de expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado su satisfacción con el envío, embalaje, talla, materiales y uso diario de las zapatillas. Ha indicado que el producto cumple sus expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado una experiencia positiva con las zapatillas, destacando la calidad de los materiales y la entrega dentro del plazo. No se mencionaron problemas de talla ni de embalaje.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado su satisfacción con las zapatillas recibidas. No se han identificado problemas significativos en su comentario.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado una valoración positiva sobre las zapatillas recibidas, destacando la rapidez de envío, la calidad de los materiales y el ajuste correcto de la talla. Además, menciona un uso diario de los zapatos y que el producto cumple con sus expectativas.</t>
+  </si>
+  <si>
+    <t>El análisis del comentario del cliente indica una valoración positiva en general. No se reportan problemas significativos. El cliente destaca la entrega puntual, la calidad de los materiales, la adecuada talla y el cumplimiento de expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente ha dejado un comentario positivo sobre las zapatillas recibidas. Destaca el diseño, confort y la ética del producto. No se mencionan problemas. El cliente las usa ocasionalmente y considera que cumplen sus expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente ha dejado un comentario positivo sobre las zapatillas recibidas, destacando la rapidez de envío, el embalaje ecológico, la calidad de los materiales y el buen ajuste de la talla. Uso ocasional. Producto cumple expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente ha dejado un comentario positivo sobre las zapatillas recibidas, destacando la entrega rápida, la calidad de los materiales y el confort durante su actividad deportiva. No se mencionan problemas con el embalaje ni la talla. El producto ha cumplido las expectativas del cliente.</t>
+  </si>
+  <si>
+    <t>El cliente ha dado un feedback positivo sobre las zapatillas recibidas. Destaca la comodidad y el ajuste correcto. No se mencionan problemas con el embalaje ni la calidad de los materiales. Uso diario previsto.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado su satisfacción con el pedido recibido, destacando la calidad de los materiales y el cumplimiento en la entrega.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado su satisfacción con las zapatillas recibidas, destacando su ligereza, calidad de materiales y comodidad. No se han reportado problemas con el envío ni el embalaje. La talla fue la correcta y el cliente las utiliza a diario. El producto ha cumplido sus expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente elogia la calidad de los materiales y la entrega rápida, pero menciona que la talla no fue la correcta. Se sugiere ofrecerle un cambio de talla si es posible.</t>
+  </si>
+  <si>
+    <t>El cliente ha dejado un comentario positivo sobre las zapatillas recibidas, destacando la entrega rápida, la talla adecuada y la calidad de los materiales. Se confirma que el producto ha cumplido con las expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente ha dejado un comentario positivo sobre las zapatillas recibidas. Todo parece estar en orden.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado satisfacción con la compra. Todo en orden.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado su satisfacción con las zapatillas recibidas. No se han identificado problemas en el análisis.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado satisfacción con el producto recibido. No se han identificado problemas en el envío, embalaje, talla o calidad de los materiales.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente respecto a la calidad de los materiales, talla incorrecta y embalaje dañado en el producto. Se está tomando acción para solucionar el problema y se enviará un reemplazo al cliente con envío acelerado.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente respecto a un pedido reciente. Se mencionan problemas con el tiempo de entrega, embalaje, materiales y talla. Se propone ofrecer un reembolso completo y un reemplazo del producto. Acciones a seguir: 1. Procesar reembolso. 2. Enviar reemplazo del producto.</t>
+  </si>
+  <si>
+    <t>El cliente ha tenido problemas con el color y los materiales de las zapatillas. Se propone ofrecer un reembolso o cambio por otro par.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente. Problemas con envío, talla y calidad de materiales. Se necesita tomar medidas correctivas.</t>
+  </si>
+  <si>
+    <t>Se ha identificado un problema con el embalaje, la talla y la calidad de los materiales en el comentario del cliente. Se recomienda tomar medidas correctivas y ofrecer una solución al cliente.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente respecto a un pedido. Se reportan problemas con el envío, embalaje dañado, talla incorrecta y calidad de materiales parcial. Se debe proceder con devolución y cambio de producto.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente sobre las zapatillas. Problemas con la calidad de materiales, envío y embalaje dañado. Se procederá con el retorno del producto.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente respecto a un producto. Se debe proceder a gestionar la devolución y reevaluar la calidad del producto.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente respecto a las zapatillas. Se identificaron problemas con el color, la calidad de los materiales, la talla y el desgaste prematuro. Se debe abordar la situación de inmediato.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo sobre un pedido que ha sufrido retraso en la entrega, embalaje dañado, talla incorrecta y problemas con la calidad de los materiales.</t>
+  </si>
+  <si>
+    <t>El cliente reportó problemas con la calidad de las zapatillas, la talla incorrecta y que el producto no cumplió sus expectativas. Se recomienda gestionar un reembolso y enviar un cupón de descuento.</t>
+  </si>
+  <si>
+    <t>Se detectaron múltiples problemas con la compra del cliente. Se procederá con el reembolso total, incluyendo el costo de envío.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo sobre las zapatillas. Se debe contactar al cliente para resolver los problemas mencionados.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente sobre su pedido. Problemas reportados: envío tardío, embalaje dañado, talla incorrecta y materiales de calidad parcial. Se ha procedido a ofrecer una solución con etiqueta de devolución gratuita y envío de un nuevo producto con par adicional de cordones.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente sobre un pedido. Se requiere una devolución y cambio gratuitos, junto con un reembolso por los gastos de envío. Tomar medidas para evitar situaciones similares en el futuro.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente respecto a la entrega, embalaje, talla y calidad de materiales. Se sugiere ofrecer reembolso o reemplazo del producto.</t>
+  </si>
+  <si>
+    <t>Se ha recibido un comentario negativo de un cliente respecto a un pedido. Se identificaron problemas con el embalaje, talla y calidad de materiales.</t>
+  </si>
+  <si>
+    <t>El cliente reporta problemas con el embalaje, talla incorrecta y calidad de materiales. Se debe contactar al cliente para resolver la situación.</t>
+  </si>
+  <si>
+    <t>Se identificaron problemas con el envío, embalaje, talla y calidad de materiales en el comentario del cliente.</t>
+  </si>
+  <si>
+    <t>Se ha recibido una valoración negativa de un cliente. Se debe proceder con una devolución gratuita y reemplazo del producto, mejorar el tiempo de entrega y garantizar una mayor calidad en los productos.</t>
+  </si>
+  <si>
+    <t>El cliente ha mencionado un ligero crujido en los zapatos después de 8 km de uso ocasional. Se sugiere buscar una solución y estar atentos a posibles problemas de calidad en futuros envíos.</t>
+  </si>
+  <si>
+    <t>El cliente recibió el pedido a tiempo, pero menciona un problema con la talla y una calidad de materiales parcial. El producto no cumple completamente sus expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente reporta que el embalaje llegó dañado y menciona que los materiales no son percibidos como lujosos. Talla correcta, pero la suela presenta un ligero ruido después de algunos usos. Producto no cumple completamente las expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente reporta que el embalaje llegó un poco dañado. Comentarios positivos sobre la talla y el envío en 96h. Comentarios parciales sobre la calidad de los materiales y el cumplimiento de expectativas. Uso ocasional de las zapatillas.</t>
+  </si>
+  <si>
+    <t>El cliente menciona que la talla no le quedó bien y que las plantillas son duras al principio. También destaca que los materiales se ven resistentes pero no ha probado las zapatillas bajo lluvia. Sugiere mejorar la calidad de los materiales.</t>
+  </si>
+  <si>
+    <t>El cliente reporta un ligero golpe en la caja del producto. Se menciona que la calidad de los materiales es aceptable pero la rigidez inicial de la entresuela puede ser un punto a mejorar. El cliente indica un uso diario de las zapatillas. La entrega se realizó en menos de 96h, pero el producto no cumple completamente las expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente ha expresado una opinión parcialmente positiva sobre el producto adquirido. Se destaca que la calidad de los materiales parece aceptable, aunque menciona que la lengüeta de los zapatos puede deslizarse. Se recomienda seguir de cerca esta situación.</t>
+  </si>
+  <si>
+    <t>El cliente reportó un problema con la entrega y la durabilidad de la suela de las zapatillas. Se sugiere reforzar la comunicación con la empresa de envíos y revisar la calidad de los materiales de las suelas.</t>
+  </si>
+  <si>
+    <t>El cliente reporta que el embalaje llegó dañado y menciona que la calidad de los materiales es parcialmente buena. Propuesta de descuento en próxima compra para compensar.</t>
+  </si>
+  <si>
+    <t>El cliente reporta que el embalaje llegó ligeramente dañado y que la talla tiene un poco de exceso de espacio en el talón. El producto no cumple completamente sus expectativas.</t>
+  </si>
+  <si>
+    <t>El cliente menciona que la suela parece dura en las primeras vueltas. Se recomienda sugerirle correr un poco para ver si se ablanda. No hay problemas con la entrega ni con el embalaje.</t>
+  </si>
+  <si>
+    <t>El cliente reportó que el embalaje llegó dañado y que la lengüeta de las zapatillas se desliza ligeramente. Recomendamos mejorar el embalaje para evitar daños y revisar el diseño de la lengüeta para mayor sujeción.</t>
   </si>
   <si>
     <t>Estimado proveedor:
-- Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
-Atentamente,
-Rodrigo Clemente, Director de Logística de KelceTS S.L.</t>
-  </si>
-  <si>
-    <t>Estimado proveedor:
-- Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
 - Envío urgente de nuevo par con talla correcta. Recojo del anterior.
 Atentamente,
 Rodrigo Clemente, Director de Logística de KelceTS S.L.</t>
@@ -1037,6 +1072,7 @@
   <si>
     <t>Estimado proveedor:
 - Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
+- Evaluar calidad del embalaje con proveedor logístico.
 - Envío urgente de nuevo par con talla correcta. Recojo del anterior.
 - Revisar materiales con proveedor. Plan de sustitución urgente.
 Atentamente,
@@ -1044,14 +1080,24 @@
   </si>
   <si>
     <t>Estimado proveedor:
+- Envío urgente de nuevo par con talla correcta. Recojo del anterior.
+- Revisar materiales con proveedor. Plan de sustitución urgente.
+Atentamente,
+Rodrigo Clemente, Director de Logística de KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Estimado proveedor:
+- Evaluar calidad del embalaje con proveedor logístico.
+- Envío urgente de nuevo par con talla correcta. Recojo del anterior.
+- Revisar materiales con proveedor. Plan de sustitución urgente.
+Atentamente,
+Rodrigo Clemente, Director de Logística de KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Estimado proveedor:
 - Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
 - Evaluar calidad del embalaje con proveedor logístico.
-Atentamente,
-Rodrigo Clemente, Director de Logística de KelceTS S.L.</t>
-  </si>
-  <si>
-    <t>Estimado proveedor:
-- Revisar materiales con proveedor. Plan de sustitución urgente.
+- Envío urgente de nuevo par con talla correcta. Recojo del anterior.
 Atentamente,
 Rodrigo Clemente, Director de Logística de KelceTS S.L.</t>
   </si>
@@ -1064,163 +1110,163 @@
 Rodrigo Clemente, Director de Logística de KelceTS S.L.</t>
   </si>
   <si>
-    <t>Estimado proveedor, queremos felicitarle por la excelente calidad de las zapatillas suministradas al cliente. Hemos recibido un comentario muy positivo destacando la rapidez en la entrega, el buen embalaje, la talla correcta y la calidad de los materiales. ¡Gracias por su buen trabajo! Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un comentario de un cliente indicando problemas de durabilidad con las zapatillas suministradas. Por favor, revisa la calidad de los materiales utilizados en la fabricación de los productos. Quedamos atentos a cualquier información adicional que puedas proporcionar. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que el cliente ha recibido satisfactoriamente las zapatillas en menos de 48 horas, con un embalaje adecuado y de buena calidad. El cliente está utilizando las zapatillas diariamente para correr y se encuentra muy satisfecho con la compra. ¡Gracias por tu colaboración en proporcionar productos de calidad! Atentamente, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Queremos informarle que uno de nuestros clientes ha recibido unas zapatillas de tamaño incorrecto. Necesitamos gestionar un cambio de talla de forma urgente. Por favor, confirme la disponibilidad de la talla correcta lo antes posible. Agradecemos su colaboración. Atentamente, Equipo de Calidad - KelceTS S.L.</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que un cliente ha expresado su satisfacción con el producto que nos suministraste. Seguimos manteniendo altos estándares de calidad gracias a tu colaboración. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Hemos recibido un comentario negativo de un cliente debido a que se ha enviado la talla incorrecta de zapatos. Necesitamos gestionar una devolución y recibir la talla correcta lo antes posible. Por favor, toma las medidas necesarias. Gracias. Rol correspondiente</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Queremos informarte que uno de nuestros clientes ha recibido un producto con retraso en la entrega y el embalaje dañado. Además, mencionó que los materiales podrían no ser muy duraderos. Por favor, revisa estos puntos para mejorar nuestros productos. Gracias, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>El cliente ha valorado positivamente la rapidez de entrega, el buen ajuste y la calidad de los materiales de las zapatillas. ¡Sigan manteniendo estos estándares de calidad en los envíos futuros!</t>
-  </si>
-  <si>
-    <t>Hola, queremos felicitarte por la entrega rápida y el buen estado de los zapatos enviados al cliente. Seguimos manteniendo altos estándares de calidad. Gracias. Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Hola, queremos informarte sobre un problema reciente con un pedido de zapatillas. El cliente experimentó un retraso en la entrega y recibió el embalaje dañado. Además, mencionó preocupaciones sobre la durabilidad de los materiales. Por favor, revisa estos aspectos en futuros envíos. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos felicitarle por la rápida entrega de las zapatillas al cliente, así como por la calidad de los materiales. Seguimos obteniendo comentarios positivos de nuestros clientes. ¡Gracias por su excelente servicio! Rol correspondiente</t>
-  </si>
-  <si>
-    <t>Hola, hemos recibido un comentario negativo de un cliente sobre la calidad de los materiales y el estado del embalaje de un pedido de zapatillas. Por favor, revisa estos aspectos en nuestros productos para garantizar la satisfacción del cliente en futuras entregas. Gracias. - Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Queremos informarte que uno de nuestros clientes ha reportado que el embalaje de las zapatillas entregadas estaba dañado y que la calidad de los materiales no cumplió con sus expectativas. Te solicitamos revisar el proceso de embalaje y la calidad de los materiales para mejorar la experiencia de nuestros clientes. Quedamos atentos a tus acciones al respecto. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Queremos comunicarte que el cliente ha expresado su satisfacción con el producto recibido. Agradecemos tu contribución a la calidad de nuestros productos. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos comunicarle que el cliente ha expresado su satisfacción con la compra de las zapatillas. Destaca la calidad de los materiales y la correcta talla, así como el uso diario que le da al producto. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que uno de nuestros clientes ha mencionado que las zapatillas recibidas tienen materiales de calidad parcial y que la talla no era la correcta para él. Aunque no planea devolverlas, nos hace reflexionar sobre la importancia de permitir a los clientes probar el calzado antes de la compra para evitar este tipo de situaciones. Quedamos atentos a cualquier sugerencia que puedas brindarnos para mejorar en este aspecto. Saludos, Equipo de KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Hemos recibido comentarios de un cliente indicando que los materiales de las zapatillas se sienten de baja calidad. Por favor, revisa la calidad de los materiales suministrados para futuros pedidos. Gracias. Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente respecto a la calidad de los materiales de las zapatillas. Necesitamos revisar este aspecto y mejorar la durabilidad de nuestros productos. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarle sobre un problema en la entrega de uno de nuestros productos a un cliente. La caja llegó dañada, lo cual afectó la experiencia del cliente. Proponemos mejorar el embalaje para evitar futuros inconvenientes. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, queremos felicitarte por la entrega rápida y la calidad de los materiales de las zapatillas enviadas al cliente. Seguimos trabajando juntos para mantener este nivel de servicio. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un producto con embalaje dañado y materiales de calidad parcial. Necesitamos mejorar estos aspectos en futuros envíos para garantizar la satisfacción del cliente. Atentamente, Equipo de KelceTS</t>
-  </si>
-  <si>
-    <t>Hola, queremos felicitarles por la entrega rápida y el buen estado de los productos enviados. Seguimos recibiendo comentarios positivos de nuestros clientes. ¡Gracias por su excelente servicio! Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que un cliente ha expresado una opinión muy positiva sobre las zapatillas que nos has suministrado. Destaca la calidad de los materiales, el tamaño correcto y el uso diario satisfactorio. Gracias por tu colaboración. Atentamente, Equipo de Calidad de KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un comentario de un cliente indicando que el embalaje de las zapatillas llegó dañado. Por favor, revisa los procesos de embalaje para evitar este tipo de situaciones en el futuro. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un reporte de entrega tardía y embalaje dañado por parte de un cliente. Por favor, revisa los procesos de envío y embalaje para evitar futuras incidencias. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarle que un cliente ha expresado preocupación sobre la calidad de los materiales de las zapatillas. Por favor, revisen este aspecto en futuras entregas. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Hola, queremos informarte que uno de nuestros clientes ha recibido un producto con el embalaje dañado. Por favor, revisa los procesos de embalaje para evitar futuros problemas. Gracias. Equipo de KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que uno de nuestros clientes ha dejado un comentario muy positivo sobre las zapatillas que adquirió, resaltando la calidad de los materiales, la rapidez en la entrega y el buen embalaje. Agradecemos tu contribución a nuestra satisfacción del cliente. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente sobre la calidad de las zapatillas suministradas. Necesitamos abordar este problema de inmediato y garantizar la calidad de los materiales utilizados. Atentamente, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos destacar la satisfacción de un cliente con la velocidad de entrega, la calidad de los materiales y el buen embalaje de las zapatillas. Seguimos trabajando en mantener altos estándares de calidad. Saludos, Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarle que ha habido un error en el envío de uno de nuestros productos a un cliente. Necesitamos que nos envíe con urgencia un par de zapatos de la talla 42 para corregir esta situación. Agradecemos su pronta atención. Saludos, Equipo de KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Queremos informarte que uno de nuestros clientes recibió un producto dañado debido al embalaje inadecuado. Por favor, revisa tus procesos de embalaje para evitar futuros problemas. Gracias por tu atención. Atentamente, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un comentario de un cliente que indica que la calidad de los materiales de las zapatillas no es la esperada. Por favor, revisa nuestros estándares de calidad y considera posibles mejoras en los materiales utilizados en nuestros productos. Gracias por tu atención. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Queremos comunicarte que el cliente ha recibido las zapatillas en 48 horas, las ha encontrado en perfectas condiciones y ha elogiado la calidad de los materiales. Agradecemos tu eficiencia en la entrega y la calidad de los productos suministrados. Atentamente, Equipo de Calidad KelceTS S.L.</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que uno de nuestros clientes ha mencionado problemas con la calidad de los materiales de las zapatillas que suministraste. Estamos investigando la situación y trabajando en mejorar este aspecto. Atentamente, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que un cliente ha mencionado que la calidad de los materiales de las zapatillas no es muy buena. Te pedimos revisar este aspecto y asegurar la calidad de los materiales en futuros envíos. Gracias por tu colaboración. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que el cliente ha recibido el producto en menos de 48 horas y se encuentra satisfecho con la calidad de los materiales y el ajuste de la talla. ¡Gracias por tu colaboración! Equipo de KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos asegurarnos de mejorar la calidad de los materiales utilizados en nuestros productos. Por favor, revisa la calidad de los materiales de las zapatillas mencionadas por el cliente y considera posibles mejoras. Gracias, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que un cliente ha mencionado que la calidad de los materiales de las zapatillas no cumplió sus expectativas. Estamos trabajando en mejoras para garantizar una mayor calidad en nuestros productos. Gracias por tu atención. Rol: Equipo de Calidad</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Queremos informarle que uno de nuestros clientes ha expresado su satisfacción con el producto que le hemos adquirido. Agradecemos su calidad en los materiales y el envío rápido. Seguimos trabajando juntos para ofrecer productos de alta calidad. Atentamente, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos informarte que uno de nuestros clientes ha mencionado que la calidad de los materiales de las zapatillas no es muy buena. Necesitamos revisar y mejorar la calidad de los materiales utilizados en nuestros productos para garantizar la satisfacción de nuestros clientes. Quedamos atentos a tus comentarios y sugerencias. Saludos, Equipo KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, queremos felicitarte por la excelente calidad y rapidez en la entrega de los productos. Seguimos recibiendo comentarios positivos de nuestros clientes, lo cual es gracias a vuestro trabajo. ¡Seguid así! - Equipo de KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un comentario de un cliente indicando problemas con la calidad de los materiales de las zapatillas. Necesitamos mejorar este aspecto en futuros pedidos para garantizar la satisfacción de nuestros clientes. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, Hemos recibido comentarios de un cliente sobre la calidad de los materiales de las zapatillas suministradas. Por favor, revisa este aspecto y considera posibles mejoras en la calidad de los materiales. Quedamos atentos a tus comentarios. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido comentarios de un cliente sobre la durabilidad de los materiales de las zapatillas. Por favor, revisa la calidad de los materiales utilizados y considera posibles mejoras. Gracias.</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un comentario de un cliente indicando que los materiales de las zapatillas podrían no ser muy resistentes. Por favor, revisa la calidad de los materiales utilizados en nuestros productos. Gracias.</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido comentarios de un cliente sobre la calidad de los materiales de nuestro producto. Necesitamos analizar y mejorar este aspecto para garantizar la satisfacción del cliente. Quedamos atentos a tus sugerencias. Saludos, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un comentario de un cliente que indica que la calidad de los materiales de nuestro producto no es alta. Necesitamos revisar esto y asegurarnos de ofrecer productos de calidad a nuestros clientes. Quedamos a la espera de su respuesta. Atentamente, Equipo de Calidad KelceTS</t>
-  </si>
-  <si>
-    <t>Estimado proveedor, hemos recibido un reporte de un cliente indicando que el embalaje de las zapatillas llegó dañado. Por favor, revisa los procesos de embalaje para evitar este tipo de situaciones en el futuro. Gracias. - Equipo de KelceTS</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>idioma_estimado</t>
-  </si>
-  <si>
-    <t>Commentaire 22: Les chaussures sont arrivées dans le délai promis de 96 heures et l'emballage était intact. La taille est correcte, mais les matériaux semblent un peu bon marché. Je les utilise occasionnellement pour des promenades et elles font l'affaire, mais je m'attendais à une meilleure qualité pour ce prix.</t>
-  </si>
-  <si>
-    <t>❌ Respuesta vacía o malformada (no es JSON)</t>
+    <t>Estimado proveedor:
+- Contactar con el proveedor para mejorar el tiempo de entrega (menos de 24h).
+Atentamente,
+Rodrigo Clemente, Director de Logística de KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos comunicarte que el cliente ha expresado su satisfacción con las zapatillas recibidas. Destacan la calidad de los materiales y el buen estado del embalaje. ¡Gracias por tu colaboración! Rol correspondiente</t>
+  </si>
+  <si>
+    <t>Hola, queremos informarte que el cliente ha recibido su pedido en excelentes condiciones y se encuentra satisfecho con la calidad de los materiales y el ajuste de las zapatillas. ¡Gracias por tu colaboración! - Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos felicitarte por la excelente calidad de los materiales utilizados en las zapatillas que suministraste. Nuestro cliente ha expresado su satisfacción con el producto y la entrega puntual. ¡Gracias por tu colaboración! Equipo de Compras KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos comunicarte que uno de nuestros clientes ha expresado su satisfacción con las zapatillas recibidas, destacando la calidad de los materiales y el envío rápido. ¡Gracias por tu colaboración en mantener nuestros estándares de calidad! Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos comunicarle que uno de nuestros clientes ha expresado una opinión positiva sobre las zapatillas que adquirió, destacando la calidad de los materiales, el ajuste correcto de la talla y la satisfacción con el producto en general. Agradecemos su colaboración en mantener altos estándares de calidad. Saludos, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que el cliente ha expresado su satisfacción con las zapatillas recibidas. Destaca la calidad de los materiales, el buen ajuste y el cumplimiento de sus expectativas. Agradecemos tu contribución a la excelencia de nuestros productos. Atentamente, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos comunicarle que uno de nuestros clientes ha dejado un comentario muy positivo sobre las zapatillas que recibió. Destaca la calidad de los materiales, el buen ajuste de la talla y la satisfacción general con el producto. ¡Enhorabuena por su excelente trabajo! Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos felicitarle por la rapidez en la entrega y la calidad de los materiales utilizados en las zapatillas enviadas al cliente. Su embalaje ecológico también ha sido muy apreciado. Seguimos recibiendo comentarios positivos de nuestros clientes. ¡Gracias por su colaboración! Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos felicitarte por la calidad de los materiales suministrados para las zapatillas que hemos enviado al cliente. Su experiencia ha sido positiva, destacando la comodidad y el rendimiento durante su actividad deportiva. ¡Gracias por tu colaboración! Rol correspondiente</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que el cliente ha recibido satisfactoriamente las zapatillas. Destaca la comodidad y el ajuste correcto, así como la calidad de los materiales. Gracias por tu colaboración. Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos comunicarte que el cliente ha quedado muy satisfecho con el producto recibido, resaltando la calidad de los materiales y la entrega puntual. ¡Gracias por tu colaboración! Rol correspondiente</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos felicitarte por la calidad de las zapatillas suministradas al cliente. Ha destacado la comodidad, la calidad de los materiales y el buen estado del embalaje. Apreciamos tu compromiso con la excelencia en los productos que nos provees. Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos destacar que el cliente elogió la calidad de los materiales de las zapatillas que nos suministraste. Sin embargo, mencionó un problema con la talla. Por favor, revisa la disponibilidad de realizar cambios de talla para este cliente. Gracias. Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, Queremos informarte que un cliente ha dejado un comentario positivo sobre las zapatillas que nos suministraste. Destaca la entrega rápida, la talla correcta y la calidad de los materiales. ¡Gracias por tu colaboración! Saludos, Equipo de Calidad KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos felicitarte por la calidad de los materiales utilizados en las zapatillas entregadas al cliente. ¡Sigue así! Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>El cliente ha valorado positivamente la calidad de los materiales, el envío rápido y la talla correcta de las zapatillas. ¡Buen trabajo!</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos comunicarte que el cliente ha quedado muy satisfecho con las zapatillas recibidas. ¡Gracias por proporcionar productos de calidad que cumplen con las expectativas de nuestros clientes! Saludos, Equipo de Calidad KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Hola, Queremos informarte que el cliente ha expresado su completa satisfacción con el producto recibido. ¡Enhorabuena por el buen trabajo en la calidad de los materiales y la entrega puntual! Saludos, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que hemos recibido un comentario negativo de un cliente debido a problemas con la calidad de los materiales, talla incorrecta y embalaje dañado en el producto suministrado. Estamos trabajando para resolver esta situación y solicitamos tu colaboración para garantizar que los productos enviados cumplan con nuestros estándares de calidad. Quedamos atentos a cualquier medida correctiva que puedas implementar. Saludos cordiales, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte sobre un problema de calidad reportado por uno de nuestros clientes. Se han mencionado problemas con el embalaje, los materiales y la talla de las zapatillas. Como medida correctiva, solicitamos una revisión de calidad más estricta en futuros envíos. Quedamos atentos a tu colaboración. Saludos, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente sobre el color y la calidad de los materiales de las zapatillas. Necesitamos abordar este problema de inmediato para garantizar la satisfacción del cliente. Por favor, revisa la calidad de los materiales y el proceso de coloración. Quedamos atentos a tu pronta respuesta. Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido comentarios negativos sobre la calidad de los materiales de las zapatillas suministradas. Necesitamos abordar este problema de inmediato. Atentamente, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, 
+Hemos recibido un comentario de un cliente que menciona problemas con el embalaje dañado y la calidad de los materiales de las zapatillas suministradas. Necesitamos abordar estos problemas de inmediato para garantizar la satisfacción del cliente. Por favor, revise nuestros estándares de embalaje y calidad de materiales. 
+Atentamente, 
+Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente que indica problemas con el embalaje dañado y la calidad de los materiales de las zapatillas suministradas. Necesitamos mejorar estos aspectos para garantizar la satisfacción del cliente en futuras entregas. Quedamos atentos a tus acciones para resolver esta situación. Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido comentarios negativos sobre la calidad de los materiales, problemas de envío y embalaje dañado en un pedido. Necesitamos abordar estos problemas de inmediato. Atentamente, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente sobre un producto que suministraste. Necesitamos abordar este problema y evaluar la calidad de los materiales utilizados. Quedamos a la espera de tu pronta respuesta. Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente respecto a las zapatillas suministradas. Se mencionaron problemas con el color, calidad de los materiales y desgaste prematuro. Necesitamos abordar estos problemas de calidad de manera urgente. Atentamente, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente que indica problemas con la calidad de los materiales en las zapatillas suministradas. Por favor, revisa tus procesos de fabricación para garantizar la calidad de los productos. Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente respecto a la calidad de las zapatillas. Necesitamos revisar y mejorar la calidad de los materiales utilizados en nuestro producto. Quedamos atentos a tus sugerencias para futuras mejoras. Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido una queja de un cliente respecto a un pedido. Se requiere reembolso total, incluyendo el costo de envío. Por favor, toma las medidas necesarias. Rol: Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, Hemos recibido un comentario negativo de un cliente sobre las zapatillas que suministraste. Necesitamos abordar los problemas de calidad y talla mencionados. Atentamente, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado/a proveedor, queremos informarte sobre un problema reportado por uno de nuestros clientes con respecto a un pedido. El cliente menciona un embalaje dañado y problemas con la talla y la calidad de los materiales. Para resolver esta situación, hemos ofrecido una etiqueta de devolución gratuita y enviaremos un nuevo producto con un par adicional de cordones. Agradecemos tu colaboración en garantizar la calidad de nuestros productos. Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Hemos recibido un comentario negativo de un cliente sobre el pedido. Necesitamos abordar los problemas de calidad en los materiales y asegurar que futuros envíos lleguen en condiciones óptimas. Por favor, revisar y mejorar la calidad de los productos enviados a nuestros clientes.</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente sobre uno de los productos suministrados. Por favor, revisa la calidad de los materiales y considera posibles acciones correctivas. Atentamente, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario negativo de un cliente respecto a un pedido. Necesitamos abordar los problemas con el embalaje, talla y calidad de materiales. Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>El cliente ha informado de que el embalaje llegó dañado, la talla no es correcta y la calidad de los materiales no es la esperada. Por favor, revisar y tomar medidas para mejorar la calidad de los productos.</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido comentarios negativos sobre la calidad de los materiales y el embalaje de un pedido. Necesitamos abordar estos problemas de inmediato. Atentamente, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, Queremos informarte que hemos recibido una valoración negativa de un cliente debido a problemas con la entrega tardía, embalaje dañado y materiales de calidad parcial. Te solicitamos mejorar la calidad de los materiales suministrados y revisar los procesos de embalaje para evitar daños durante el envío. También necesitamos garantizar un tiempo de entrega más rápido en futuros pedidos. Agradecemos tu atención a estos asuntos. Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que un cliente ha mencionado un ligero crujido en los zapatos después de un uso ocasional. Necesitamos asegurarnos de la calidad de los materiales para evitar este tipo de problemas en el futuro. Por favor, revisa los procesos de fabricación. Gracias. Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>Hola, queremos informarte que un cliente mencionó que los materiales de las zapatillas parecen decentes pero no excepcionales. También indicó que la talla 11 se siente un poco grande. Por favor, revisa estos puntos en nuestros productos. Rol: Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que uno de nuestros clientes ha recibido un producto con el embalaje dañado. Necesitamos asegurarnos de que futuros envíos estén mejor protegidos. Por favor, revisa nuestros procesos de embalaje. Gracias, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que un cliente ha mencionado que el embalaje de las zapatillas llegó un poco dañado. Por favor, revisa nuestros procesos de embalaje para evitar este tipo de situaciones en el futuro. Gracias por tu atención. Rol: Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, hemos recibido un comentario de un cliente indicando que las plantillas de las zapatillas son duras al principio, por lo que podríamos explorar opciones de plantillas más cómodas. Además, menciona que los materiales se ven resistentes, pero sugiere mejorar su calidad. Apreciamos cualquier sugerencia para seguir mejorando. Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que uno de nuestros clientes ha recibido las zapatillas con un ligero golpe en la caja. Aunque menciona que la talla es correcta, sugiere que la rigidez inicial de la entresuela podría mejorarse. Apreciamos tu atención a estos detalles para futuros envíos. Saludos, Equipo KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, Queremos informarle sobre el feedback recibido de un cliente en relación a un pedido reciente. El cliente menciona que la calidad de los materiales parece adecuada, pero ha experimentado deslizamiento en la lengüeta de los zapatos. Le solicitamos revisar este aspecto y considerar posibles mejoras. Saludos, Equipo de Calidad KelceTS S.L.</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarle sobre el feedback de un cliente en relación a las zapatillas suministradas. Se mencionó la firmeza de la palmilha de cortiça y la durabilidad de la suela como áreas de mejora. Agradeceríamos su colaboración para asegurar la calidad de los materiales suministrados. Saludos, Equipo de KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, se ha recibido un comentario de un cliente indicando que el embalaje de las zapatillas llegó dañado. Por favor, revisa los procesos de embalaje para evitar futuras incidencias. Rol: Equipo de Calidad</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que uno de nuestros clientes recibió el producto con el embalaje ligeramente dañado. Te mantendremos informado sobre cualquier desarrollo adicional. Saludos, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que un cliente ha mencionado que la suela de las zapatillas que suministraste parece dura en las primeras vueltas. Sugerimos verificar la calidad de los materiales de las suelas para futuras mejoras. Quedamos atentos a cualquier comentario adicional. Saludos, Equipo de Calidad KelceTS</t>
+  </si>
+  <si>
+    <t>Estimado proveedor, queremos informarte que un cliente ha mencionado que el embalaje de las zapatillas llegó dañado. Te solicitamos revisar los procesos de embalaje para garantizar la integridad de los productos durante el envío. Quedamos atentos a tus comentarios. Saludos, Equipo de Calidad KelceTS</t>
   </si>
   <si>
     <t>Gráfico: Valoraciones por Idioma</t>
@@ -1233,16 +1279,13 @@
   </si>
   <si>
     <t>Gráfico: Variables de Calidad</t>
-  </si>
-  <si>
-    <t>neutra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,14 +1348,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1333,13 +1368,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="grafico_valoraciones_idioma.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="grafico_valoraciones_idioma.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1377,13 +1406,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="grafico_valoraciones_pastel.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="grafico_valoraciones_pastel.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1421,13 +1444,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="grafico_errores_idioma.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="grafico_errores_idioma.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1465,13 +1482,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="grafico_calidad_por_variable.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="grafico_calidad_por_variable.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1498,9 +1509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1538,7 +1549,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1572,7 +1583,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1607,10 +1617,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1783,16 +1792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1845,48 +1852,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" t="s">
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1894,116 +1907,110 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
         <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="O3" t="s">
-        <v>233</v>
-      </c>
-      <c r="P3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="Q3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O4" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="Q4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
         <v>83</v>
@@ -2012,298 +2019,280 @@
         <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="O5" t="s">
-        <v>235</v>
-      </c>
-      <c r="P5" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="Q5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M6" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="O6" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="O7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="Q7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
         <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
         <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="O8" t="s">
-        <v>238</v>
-      </c>
-      <c r="P8" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="Q8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="O9" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M10" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="O10" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
         <v>83</v>
@@ -2315,95 +2304,83 @@
         <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="O11" t="s">
-        <v>241</v>
-      </c>
-      <c r="P11" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="Q11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
         <v>83</v>
@@ -2415,36 +2392,30 @@
         <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>243</v>
-      </c>
-      <c r="P13" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="Q13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>81</v>
@@ -2456,195 +2427,201 @@
         <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
         <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s">
-        <v>190</v>
+        <v>200</v>
+      </c>
+      <c r="N14" t="s">
+        <v>235</v>
       </c>
       <c r="O14" t="s">
-        <v>244</v>
+        <v>254</v>
+      </c>
+      <c r="P14" t="s">
+        <v>292</v>
       </c>
       <c r="Q14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="O15" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
         <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
         <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" t="s">
-        <v>227</v>
+        <v>118</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="s">
+        <v>203</v>
       </c>
       <c r="O17" t="s">
-        <v>247</v>
-      </c>
-      <c r="P17" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="Q17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
         <v>83</v>
@@ -2653,28 +2630,22 @@
         <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>248</v>
-      </c>
-      <c r="P18" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="Q18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2682,119 +2653,113 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
         <v>83</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
         <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>249</v>
-      </c>
-      <c r="P19" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="Q19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="O20" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="P20" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
@@ -2803,42 +2768,48 @@
         <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
         <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M21" t="s">
-        <v>196</v>
+        <v>207</v>
+      </c>
+      <c r="N21" t="s">
+        <v>236</v>
       </c>
       <c r="O21" t="s">
-        <v>251</v>
+        <v>261</v>
+      </c>
+      <c r="P21" t="s">
+        <v>293</v>
       </c>
       <c r="Q21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>81</v>
@@ -2847,54 +2818,54 @@
         <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="P22" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
         <v>81</v>
@@ -2909,39 +2880,45 @@
         <v>81</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s">
-        <v>198</v>
+        <v>209</v>
+      </c>
+      <c r="N23" t="s">
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>253</v>
+        <v>263</v>
+      </c>
+      <c r="P23" t="s">
+        <v>293</v>
       </c>
       <c r="Q23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
@@ -2956,195 +2933,201 @@
         <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
       </c>
       <c r="O24" t="s">
-        <v>254</v>
+        <v>264</v>
+      </c>
+      <c r="P24" t="s">
+        <v>295</v>
       </c>
       <c r="Q24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
         <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P25" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="Q25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M26" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="P26" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="Q26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P27" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
@@ -3153,60 +3136,60 @@
         <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
         <v>86</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M28" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O28" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q28" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
         <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
         <v>84</v>
@@ -3215,92 +3198,86 @@
         <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" t="s">
-        <v>168</v>
-      </c>
-      <c r="M29" t="s">
-        <v>204</v>
+        <v>130</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
       </c>
       <c r="O29" t="s">
-        <v>259</v>
+        <v>269</v>
+      </c>
+      <c r="P29" t="s">
+        <v>296</v>
       </c>
       <c r="Q29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
         <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
         <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P30" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q30" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>81</v>
@@ -3309,198 +3286,210 @@
         <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
         <v>81</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
       </c>
       <c r="O31" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="P31" t="s">
+        <v>293</v>
       </c>
       <c r="Q31" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="N32" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="Q32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
         <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M33" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="N33" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O33" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="P33" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="Q33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s">
-        <v>209</v>
+        <v>218</v>
+      </c>
+      <c r="N34" t="s">
+        <v>236</v>
       </c>
       <c r="O34" t="s">
-        <v>264</v>
+        <v>274</v>
+      </c>
+      <c r="P34" t="s">
+        <v>293</v>
       </c>
       <c r="Q34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
         <v>81</v>
@@ -3515,139 +3504,151 @@
         <v>81</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M35" t="s">
-        <v>210</v>
+        <v>219</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
       </c>
       <c r="O35" t="s">
-        <v>265</v>
+        <v>275</v>
+      </c>
+      <c r="P35" t="s">
+        <v>293</v>
       </c>
       <c r="Q35" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
         <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="N36" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O36" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P36" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
         <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M37" t="s">
-        <v>212</v>
+        <v>221</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
       </c>
       <c r="O37" t="s">
-        <v>267</v>
+        <v>277</v>
+      </c>
+      <c r="P37" t="s">
+        <v>293</v>
       </c>
       <c r="Q37" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
         <v>81</v>
@@ -3662,166 +3663,184 @@
         <v>81</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M38" t="s">
-        <v>213</v>
+        <v>222</v>
+      </c>
+      <c r="N38" t="s">
+        <v>236</v>
       </c>
       <c r="O38" t="s">
-        <v>268</v>
+        <v>278</v>
+      </c>
+      <c r="P38" t="s">
+        <v>293</v>
       </c>
       <c r="Q38" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L39" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="M39" t="s">
-        <v>214</v>
+        <v>223</v>
+      </c>
+      <c r="N39" t="s">
+        <v>239</v>
       </c>
       <c r="O39" t="s">
-        <v>269</v>
+        <v>279</v>
+      </c>
+      <c r="P39" t="s">
+        <v>296</v>
       </c>
       <c r="Q39" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M40" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="O40" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q40" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L41" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M41" t="s">
-        <v>216</v>
+        <v>225</v>
+      </c>
+      <c r="N41" t="s">
+        <v>235</v>
       </c>
       <c r="O41" t="s">
-        <v>271</v>
+        <v>281</v>
+      </c>
+      <c r="P41" t="s">
+        <v>292</v>
       </c>
       <c r="Q41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3829,104 +3848,104 @@
         <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="O42" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Q42" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L43" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M43" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="O43" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
         <v>81</v>
@@ -3935,394 +3954,399 @@
         <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
-      </c>
-      <c r="L44" t="s">
-        <v>178</v>
-      </c>
-      <c r="M44" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="N44" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O44" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P44" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
         <v>86</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M45" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="O45" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q45" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L46" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M46" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="N46" t="s">
+        <v>241</v>
       </c>
       <c r="O46" t="s">
-        <v>276</v>
+        <v>286</v>
+      </c>
+      <c r="P46" t="s">
+        <v>298</v>
       </c>
       <c r="Q46" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="M47" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="O47" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q47" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
         <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="M48" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O48" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q48" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L49" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M49" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O49" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q49" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L50" t="s">
+        <v>161</v>
+      </c>
+      <c r="M50" t="s">
+        <v>233</v>
+      </c>
+      <c r="O50" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
         <v>79</v>
       </c>
-      <c r="D50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" t="s">
-        <v>86</v>
-      </c>
-      <c r="I50" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" t="s">
-        <v>143</v>
-      </c>
-      <c r="L50" t="s">
-        <v>179</v>
-      </c>
-      <c r="M50" t="s">
-        <v>225</v>
-      </c>
-      <c r="N50" t="s">
-        <v>229</v>
-      </c>
-      <c r="O50" t="s">
-        <v>280</v>
-      </c>
-      <c r="P50" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>335</v>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51" t="s">
+        <v>152</v>
+      </c>
+      <c r="L51" t="s">
+        <v>189</v>
+      </c>
+      <c r="M51" t="s">
+        <v>234</v>
+      </c>
+      <c r="O51" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
